--- a/credentials/Updated CloudX Web-1.xlsx
+++ b/credentials/Updated CloudX Web-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1141">
   <si>
     <t xml:space="preserve">  Product Name:-Cloud.X            VERSION: 20.24.1.1</t>
   </si>
@@ -788,10 +788,10 @@
     <t>RQ_ID_29</t>
   </si>
   <si>
-    <t>General Menu</t>
-  </si>
-  <si>
-    <t>To check various options in General menu</t>
+    <t>Edit Menu</t>
+  </si>
+  <si>
+    <t>To check various options in Edit menu</t>
   </si>
   <si>
     <t>1.Open browser
@@ -799,10 +799,12 @@
 3.Enter valid username and password
 4.Click on login button 
 5.Navigate to Distributive &gt; Click on cloudX &gt; Select channel - ASIANET_TEST
-6.Click on General Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below option there in Playlist menu:: 
+6. Load any playlist.
+7. Select any Clip ID.
+8.Click on Edit Menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below option there in Edit menu:: 
 1. Forcibly ID Play.
 2. Direct Play.        
 3. Forcibly Live Switch. 
@@ -817,7 +819,7 @@
 12. Insert live.        </t>
   </si>
   <si>
-    <t xml:space="preserve">Below option there in Playlist menu:: 
+    <t xml:space="preserve">Below option there in Edit menu:: 
 1. Forcibly ID Play.
 2. Direct Play.        
 3. Forcibly Live Switch. 
@@ -836,6 +838,9 @@
   </si>
   <si>
     <t>RQ_ID_30</t>
+  </si>
+  <si>
+    <t>General Menu</t>
   </si>
   <si>
     <t>To check Forcibly ID play</t>
@@ -5750,7 +5755,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5820,12 +5825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6208,7 +6207,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6232,16 +6231,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6250,89 +6249,89 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6591,18 +6590,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6708,10 +6695,10 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7053,8 +7040,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -7083,7 +7070,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="101"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" ht="15.6" spans="1:11">
@@ -7098,7 +7085,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="101"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" ht="15.6" spans="1:11">
@@ -7113,7 +7100,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="102"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" ht="15.6" spans="1:11">
@@ -7183,7 +7170,7 @@
       <c r="K5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="99" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7219,7 +7206,7 @@
       <c r="K6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" ht="72" spans="1:13">
       <c r="A7" s="12" t="s">
@@ -7251,7 +7238,7 @@
       <c r="K7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" ht="86.4" spans="1:13">
       <c r="A8" s="12" t="s">
@@ -7283,7 +7270,7 @@
       <c r="K8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="103"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" ht="100.8" spans="1:13">
       <c r="A9" s="12" t="s">
@@ -7315,7 +7302,7 @@
       <c r="K9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="103"/>
+      <c r="M9" s="99"/>
     </row>
     <row r="10" ht="86.4" spans="1:13">
       <c r="A10" s="12" t="s">
@@ -7347,7 +7334,7 @@
       <c r="K10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="103"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" ht="86.4" spans="1:13">
       <c r="A11" s="12" t="s">
@@ -7379,7 +7366,7 @@
       <c r="K11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="103"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" ht="86.4" spans="1:13">
       <c r="A12" s="12" t="s">
@@ -7411,7 +7398,7 @@
       <c r="K12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="103"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" ht="100.8" spans="1:11">
       <c r="A13" s="18" t="s">
@@ -7438,13 +7425,13 @@
       <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="100" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7495,7 +7482,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-      <c r="M15" s="105" t="s">
+      <c r="M15" s="101" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7657,7 +7644,7 @@
       <c r="K20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="106" t="s">
+      <c r="N20" s="102" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7695,7 +7682,7 @@
       <c r="K21" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="107" t="s">
+      <c r="N21" s="103" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7729,7 +7716,7 @@
       <c r="K22" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="108" t="s">
+      <c r="N22" s="104" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7828,7 +7815,7 @@
       <c r="K25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="109"/>
+      <c r="L25" s="105"/>
     </row>
     <row r="26" ht="129.6" spans="1:11">
       <c r="A26" s="18" t="s">
@@ -7882,10 +7869,10 @@
       <c r="H27" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="87" t="s">
         <v>160</v>
       </c>
       <c r="K27" s="59" t="s">
@@ -7916,20 +7903,20 @@
       <c r="H28" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="110" t="s">
+      <c r="I28" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="110" t="s">
+      <c r="J28" s="106" t="s">
         <v>166</v>
       </c>
       <c r="K28" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111" t="s">
+      <c r="L28" s="107"/>
+      <c r="M28" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="N28" s="111"/>
+      <c r="N28" s="107"/>
     </row>
     <row r="29" ht="172.8" spans="1:14">
       <c r="A29" s="76" t="s">
@@ -7965,9 +7952,9 @@
       <c r="K29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
     </row>
     <row r="30" ht="172.8" spans="1:14">
       <c r="A30" s="62" t="s">
@@ -7999,9 +7986,9 @@
       <c r="K30" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
     </row>
     <row r="31" ht="201.6" spans="1:14">
       <c r="A31" s="76" t="s">
@@ -8033,47 +8020,49 @@
       <c r="K31" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-    </row>
-    <row r="32" ht="144" spans="1:12">
-      <c r="A32" s="12" t="s">
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+    </row>
+    <row r="32" ht="144" spans="1:14">
+      <c r="A32" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="88" t="s">
+      <c r="E32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H32" s="89" t="s">
+      <c r="H32" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="I32" s="87" t="s">
+      <c r="I32" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="87" t="s">
+      <c r="J32" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="103" t="s">
         <v>196</v>
       </c>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
     </row>
     <row r="33" ht="229" customHeight="1" spans="1:11">
       <c r="A33" s="12" t="s">
@@ -8091,7 +8080,7 @@
       <c r="E33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="86" t="s">
         <v>86</v>
       </c>
       <c r="G33" s="59" t="s">
@@ -8118,28 +8107,28 @@
         <v>205</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E34" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I34" s="59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" s="59" t="s">
         <v>23</v>
@@ -8147,16 +8136,16 @@
     </row>
     <row r="35" ht="172.8" spans="1:11">
       <c r="A35" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E35" s="59" t="s">
         <v>28</v>
@@ -8165,16 +8154,16 @@
         <v>113</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I35" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J35" s="59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K35" s="59" t="s">
         <v>23</v>
@@ -8182,34 +8171,34 @@
     </row>
     <row r="36" ht="144" spans="1:11">
       <c r="A36" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E36" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="90" t="s">
-        <v>207</v>
+      <c r="F36" s="86" t="s">
+        <v>208</v>
       </c>
       <c r="G36" s="59" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I36" s="59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J36" s="59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K36" s="59" t="s">
         <v>23</v>
@@ -8217,16 +8206,16 @@
     </row>
     <row r="37" ht="144" spans="1:11">
       <c r="A37" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E37" s="59" t="s">
         <v>28</v>
@@ -8235,16 +8224,16 @@
         <v>113</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J37" s="59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K37" s="59" t="s">
         <v>23</v>
@@ -8252,34 +8241,34 @@
     </row>
     <row r="38" ht="144" spans="1:11">
       <c r="A38" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="90" t="s">
+      <c r="F38" s="86" t="s">
         <v>113</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J38" s="59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K38" s="59" t="s">
         <v>23</v>
@@ -8287,34 +8276,34 @@
     </row>
     <row r="39" ht="144" spans="1:11">
       <c r="A39" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E39" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="90" t="s">
+      <c r="F39" s="86" t="s">
         <v>106</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K39" s="59" t="s">
         <v>23</v>
@@ -8322,16 +8311,16 @@
     </row>
     <row r="40" ht="158.4" spans="1:11">
       <c r="A40" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E40" s="59" t="s">
         <v>28</v>
@@ -8340,16 +8329,16 @@
         <v>113</v>
       </c>
       <c r="G40" s="59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J40" s="59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K40" s="59" t="s">
         <v>23</v>
@@ -8357,16 +8346,16 @@
     </row>
     <row r="41" ht="192" customHeight="1" spans="1:11">
       <c r="A41" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E41" s="59" t="s">
         <v>28</v>
@@ -8378,13 +8367,13 @@
         <v>71</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I41" s="59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J41" s="59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K41" s="59" t="s">
         <v>23</v>
@@ -8392,34 +8381,34 @@
     </row>
     <row r="42" ht="144" spans="1:11">
       <c r="A42" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E42" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="F42" s="86" t="s">
         <v>113</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I42" s="59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J42" s="59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K42" s="59" t="s">
         <v>23</v>
@@ -8427,34 +8416,34 @@
     </row>
     <row r="43" ht="129.6" spans="1:11">
       <c r="A43" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="91" t="s">
-        <v>268</v>
+        <v>206</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>269</v>
       </c>
       <c r="E43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="F43" s="86" t="s">
         <v>106</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J43" s="59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K43" s="59" t="s">
         <v>23</v>
@@ -8462,16 +8451,16 @@
     </row>
     <row r="44" ht="140.4" spans="1:11">
       <c r="A44" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>275</v>
+        <v>206</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>276</v>
       </c>
       <c r="E44" s="59" t="s">
         <v>28</v>
@@ -8480,16 +8469,16 @@
         <v>106</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I44" s="59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J44" s="59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K44" s="59" t="s">
         <v>23</v>
@@ -8497,32 +8486,32 @@
     </row>
     <row r="45" ht="115.2" spans="1:11">
       <c r="A45" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="93" t="s">
         <v>280</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>281</v>
       </c>
       <c r="E45" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I45" s="61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K45" s="61" t="s">
         <v>23</v>
@@ -8530,32 +8519,32 @@
     </row>
     <row r="46" ht="109" customHeight="1" spans="1:11">
       <c r="A46" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="92" t="s">
-        <v>199</v>
+        <v>286</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="61"/>
       <c r="G46" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I46" s="61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J46" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K46" s="61" t="s">
         <v>23</v>
@@ -8563,32 +8552,32 @@
     </row>
     <row r="47" ht="69" customHeight="1" spans="1:11">
       <c r="A47" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>199</v>
+        <v>292</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="61"/>
       <c r="G47" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H47" s="94" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="H47" s="90" t="s">
+        <v>294</v>
       </c>
       <c r="I47" s="61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K47" s="61" t="s">
         <v>23</v>
@@ -8596,32 +8585,32 @@
     </row>
     <row r="48" ht="36" customHeight="1" spans="1:11">
       <c r="A48" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>199</v>
+        <v>298</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E48" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H48" s="61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I48" s="61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J48" s="61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K48" s="61" t="s">
         <v>23</v>
@@ -8629,32 +8618,32 @@
     </row>
     <row r="49" ht="54" customHeight="1" spans="1:11">
       <c r="A49" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>199</v>
+        <v>304</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E49" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K49" s="61" t="s">
         <v>23</v>
@@ -8662,32 +8651,32 @@
     </row>
     <row r="50" ht="59" customHeight="1" spans="1:11">
       <c r="A50" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>199</v>
+        <v>310</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E50" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" s="94" t="s">
-        <v>311</v>
+        <v>287</v>
+      </c>
+      <c r="H50" s="90" t="s">
+        <v>312</v>
       </c>
       <c r="I50" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J50" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K50" s="61" t="s">
         <v>23</v>
@@ -8695,32 +8684,32 @@
     </row>
     <row r="51" ht="178" customHeight="1" spans="1:11">
       <c r="A51" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E51" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="59"/>
       <c r="G51" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H51" s="59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I51" s="59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J51" s="59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K51" s="59" t="s">
         <v>23</v>
@@ -8728,29 +8717,29 @@
     </row>
     <row r="52" ht="156" spans="1:11">
       <c r="A52" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E52" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H52" s="59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J52" s="59" t="s">
         <v>73</v>
@@ -8761,32 +8750,32 @@
     </row>
     <row r="53" ht="140.4" spans="1:11">
       <c r="A53" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D53" s="59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E53" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91" t="s">
-        <v>330</v>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87" t="s">
+        <v>331</v>
       </c>
       <c r="H53" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="J53" s="91" t="s">
-        <v>332</v>
+      <c r="I53" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="87" t="s">
+        <v>333</v>
       </c>
       <c r="K53" s="59" t="s">
         <v>23</v>
@@ -8794,32 +8783,32 @@
     </row>
     <row r="54" ht="138" customHeight="1" spans="1:11">
       <c r="A54" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E54" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="59"/>
       <c r="G54" s="59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H54" s="59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I54" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J54" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K54" s="59" t="s">
         <v>23</v>
@@ -8827,32 +8816,32 @@
     </row>
     <row r="55" ht="138" customHeight="1" spans="1:11">
       <c r="A55" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D55" s="59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E55" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="59"/>
       <c r="G55" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H55" s="59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I55" s="59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J55" s="59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K55" s="59" t="s">
         <v>23</v>
@@ -8860,32 +8849,32 @@
     </row>
     <row r="56" ht="138" customHeight="1" spans="1:11">
       <c r="A56" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E56" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="59"/>
       <c r="G56" s="59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H56" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I56" s="59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J56" s="59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K56" s="59" t="s">
         <v>23</v>
@@ -8893,32 +8882,32 @@
     </row>
     <row r="57" ht="138" customHeight="1" spans="1:11">
       <c r="A57" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E57" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="59"/>
       <c r="G57" s="59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H57" s="59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J57" s="59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K57" s="59" t="s">
         <v>23</v>
@@ -8926,32 +8915,32 @@
     </row>
     <row r="58" ht="165" customHeight="1" spans="1:11">
       <c r="A58" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D58" s="59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E58" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="59"/>
       <c r="G58" s="59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H58" s="59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I58" s="59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K58" s="59" t="s">
         <v>23</v>
@@ -8959,32 +8948,32 @@
     </row>
     <row r="59" ht="138" customHeight="1" spans="1:11">
       <c r="A59" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D59" s="95" t="s">
-        <v>366</v>
-      </c>
-      <c r="E59" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" s="92" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="59"/>
       <c r="G59" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="H59" s="97" t="s">
         <v>368</v>
       </c>
-      <c r="I59" s="112" t="s">
+      <c r="H59" s="93" t="s">
         <v>369</v>
       </c>
-      <c r="J59" s="112" t="s">
+      <c r="I59" s="108" t="s">
         <v>370</v>
+      </c>
+      <c r="J59" s="108" t="s">
+        <v>371</v>
       </c>
       <c r="K59" s="59" t="s">
         <v>23</v>
@@ -8992,32 +8981,32 @@
     </row>
     <row r="60" ht="205" customHeight="1" spans="1:11">
       <c r="A60" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D60" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="E60" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" s="92" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="59"/>
       <c r="G60" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="H60" s="97" t="s">
         <v>375</v>
       </c>
-      <c r="I60" s="112" t="s">
+      <c r="H60" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="J60" s="112" t="s">
+      <c r="I60" s="108" t="s">
         <v>377</v>
+      </c>
+      <c r="J60" s="108" t="s">
+        <v>378</v>
       </c>
       <c r="K60" s="59" t="s">
         <v>23</v>
@@ -9025,32 +9014,32 @@
     </row>
     <row r="61" ht="138" customHeight="1" spans="1:11">
       <c r="A61" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E61" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="59"/>
       <c r="G61" s="59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H61" s="59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I61" s="59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J61" s="59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K61" s="59" t="s">
         <v>23</v>
@@ -9058,30 +9047,30 @@
     </row>
     <row r="62" ht="138" customHeight="1" spans="1:11">
       <c r="A62" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>387</v>
+        <v>336</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>388</v>
       </c>
       <c r="E62" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
       <c r="H62" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>23</v>
@@ -9089,63 +9078,63 @@
     </row>
     <row r="63" ht="138" customHeight="1" spans="1:11">
       <c r="A63" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D63" s="98" t="s">
-        <v>393</v>
+        <v>336</v>
+      </c>
+      <c r="D63" s="94" t="s">
+        <v>394</v>
       </c>
       <c r="E63" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I63" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J63" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="K63" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="K63" s="95" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" ht="138" customHeight="1" spans="1:11">
       <c r="A64" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E64" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="59"/>
       <c r="G64" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="H64" s="100" t="s">
         <v>401</v>
       </c>
-      <c r="I64" s="98" t="s">
+      <c r="H64" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="J64" s="112" t="s">
+      <c r="I64" s="94" t="s">
         <v>403</v>
+      </c>
+      <c r="J64" s="108" t="s">
+        <v>404</v>
       </c>
       <c r="K64" s="59" t="s">
         <v>23</v>
@@ -9153,32 +9142,32 @@
     </row>
     <row r="65" ht="138" customHeight="1" spans="1:11">
       <c r="A65" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>406</v>
+        <v>336</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>407</v>
       </c>
       <c r="E65" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="59"/>
       <c r="G65" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="H65" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="I65" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="J65" s="112" t="s">
-        <v>403</v>
+      <c r="H65" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="I65" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" s="108" t="s">
+        <v>404</v>
       </c>
       <c r="K65" s="59" t="s">
         <v>23</v>
@@ -9186,32 +9175,32 @@
     </row>
     <row r="66" ht="138" customHeight="1" spans="1:11">
       <c r="A66" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E66" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="59"/>
       <c r="G66" s="59" t="s">
-        <v>411</v>
-      </c>
-      <c r="H66" s="100" t="s">
         <v>412</v>
       </c>
-      <c r="I66" s="112" t="s">
+      <c r="H66" s="96" t="s">
         <v>413</v>
       </c>
-      <c r="J66" s="112" t="s">
+      <c r="I66" s="108" t="s">
         <v>414</v>
+      </c>
+      <c r="J66" s="108" t="s">
+        <v>415</v>
       </c>
       <c r="K66" s="59" t="s">
         <v>23</v>
@@ -9219,32 +9208,32 @@
     </row>
     <row r="67" ht="140.4" spans="1:11">
       <c r="A67" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D67" s="59" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E67" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91" t="s">
-        <v>330</v>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87" t="s">
+        <v>331</v>
       </c>
       <c r="H67" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="I67" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="J67" s="91" t="s">
-        <v>332</v>
+      <c r="I67" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="J67" s="87" t="s">
+        <v>333</v>
       </c>
       <c r="K67" s="59" t="s">
         <v>23</v>
@@ -9252,32 +9241,32 @@
     </row>
     <row r="68" ht="140.4" spans="1:11">
       <c r="A68" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D68" s="59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E68" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91" t="s">
-        <v>330</v>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87" t="s">
+        <v>331</v>
       </c>
       <c r="H68" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="I68" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="J68" s="91" t="s">
-        <v>422</v>
+      <c r="I68" s="87" t="s">
+        <v>423</v>
+      </c>
+      <c r="J68" s="87" t="s">
+        <v>423</v>
       </c>
       <c r="K68" s="59" t="s">
         <v>23</v>
@@ -9285,65 +9274,65 @@
     </row>
     <row r="69" customFormat="1" ht="140.4" spans="1:11">
       <c r="A69" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E69" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91" t="s">
-        <v>426</v>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87" t="s">
+        <v>427</v>
       </c>
       <c r="H69" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="I69" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="J69" s="120" t="s">
-        <v>428</v>
-      </c>
-      <c r="K69" s="121" t="s">
+      <c r="I69" s="116" t="s">
         <v>429</v>
+      </c>
+      <c r="J69" s="116" t="s">
+        <v>429</v>
+      </c>
+      <c r="K69" s="117" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="70" customFormat="1" ht="187.2" spans="1:11">
       <c r="A70" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D70" s="59" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E70" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="59"/>
       <c r="G70" s="59" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I70" s="59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J70" s="59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K70" s="59" t="s">
         <v>23</v>
@@ -9351,32 +9340,32 @@
     </row>
     <row r="71" customFormat="1" ht="187.2" spans="1:11">
       <c r="A71" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="D71" s="91" t="s">
-        <v>438</v>
+        <v>317</v>
+      </c>
+      <c r="D71" s="87" t="s">
+        <v>439</v>
       </c>
       <c r="E71" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91" t="s">
-        <v>439</v>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87" t="s">
+        <v>440</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="I71" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="J71" s="91" t="s">
-        <v>441</v>
+      <c r="I71" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="J71" s="87" t="s">
+        <v>442</v>
       </c>
       <c r="K71" s="59" t="s">
         <v>23</v>
@@ -9384,32 +9373,32 @@
     </row>
     <row r="72" customFormat="1" ht="187.2" spans="1:11">
       <c r="A72" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="D72" s="91" t="s">
-        <v>444</v>
+        <v>317</v>
+      </c>
+      <c r="D72" s="87" t="s">
+        <v>445</v>
       </c>
       <c r="E72" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91" t="s">
-        <v>445</v>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87" t="s">
+        <v>446</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="I72" s="91" t="s">
         <v>447</v>
       </c>
-      <c r="J72" s="91" t="s">
-        <v>447</v>
+      <c r="I72" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="J72" s="87" t="s">
+        <v>448</v>
       </c>
       <c r="K72" s="59" t="s">
         <v>23</v>
@@ -9417,32 +9406,32 @@
     </row>
     <row r="73" customFormat="1" ht="187.2" spans="1:11">
       <c r="A73" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="D73" s="91" t="s">
-        <v>450</v>
+        <v>317</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>451</v>
       </c>
       <c r="E73" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91" t="s">
-        <v>451</v>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87" t="s">
+        <v>452</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="I73" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="J73" s="91" t="s">
-        <v>453</v>
+      <c r="I73" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="J73" s="87" t="s">
+        <v>454</v>
       </c>
       <c r="K73" s="59" t="s">
         <v>23</v>
@@ -9450,32 +9439,32 @@
     </row>
     <row r="74" customFormat="1" ht="187.2" spans="1:11">
       <c r="A74" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C74" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>456</v>
+        <v>317</v>
+      </c>
+      <c r="D74" s="87" t="s">
+        <v>457</v>
       </c>
       <c r="E74" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91" t="s">
-        <v>456</v>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87" t="s">
+        <v>457</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I74" s="69" t="s">
-        <v>458</v>
-      </c>
-      <c r="J74" s="91" t="s">
         <v>459</v>
+      </c>
+      <c r="J74" s="87" t="s">
+        <v>460</v>
       </c>
       <c r="K74" s="59" t="s">
         <v>23</v>
@@ -9483,68 +9472,68 @@
     </row>
     <row r="75" customFormat="1" ht="358.8" spans="1:12">
       <c r="A75" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D75" s="59" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E75" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F75" s="59"/>
       <c r="G75" s="59" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H75" s="59" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I75" s="59" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J75" s="59" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K75" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="86.4" spans="1:11">
       <c r="A76" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D76" s="91" t="s">
-        <v>471</v>
+        <v>463</v>
+      </c>
+      <c r="D76" s="87" t="s">
+        <v>472</v>
       </c>
       <c r="E76" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91" t="s">
-        <v>471</v>
-      </c>
-      <c r="H76" s="91" t="s">
+      <c r="F76" s="87"/>
+      <c r="G76" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="I76" s="91" t="s">
+      <c r="H76" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="J76" s="91" t="s">
-        <v>473</v>
+      <c r="I76" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" s="87" t="s">
+        <v>474</v>
       </c>
       <c r="K76" s="69" t="s">
         <v>23</v>
@@ -9552,32 +9541,32 @@
     </row>
     <row r="77" customFormat="1" ht="86.4" spans="1:11">
       <c r="A77" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D77" s="91" t="s">
-        <v>476</v>
+        <v>463</v>
+      </c>
+      <c r="D77" s="87" t="s">
+        <v>477</v>
       </c>
       <c r="E77" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="H77" s="91" t="s">
+      <c r="F77" s="87"/>
+      <c r="G77" s="87" t="s">
         <v>478</v>
       </c>
-      <c r="I77" s="91" t="s">
+      <c r="H77" s="87" t="s">
         <v>479</v>
       </c>
-      <c r="J77" s="91" t="s">
-        <v>479</v>
+      <c r="I77" s="87" t="s">
+        <v>480</v>
+      </c>
+      <c r="J77" s="87" t="s">
+        <v>480</v>
       </c>
       <c r="K77" s="69" t="s">
         <v>23</v>
@@ -9585,32 +9574,32 @@
     </row>
     <row r="78" customFormat="1" ht="115.2" spans="1:11">
       <c r="A78" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D78" s="91" t="s">
-        <v>482</v>
+        <v>463</v>
+      </c>
+      <c r="D78" s="87" t="s">
+        <v>483</v>
       </c>
       <c r="E78" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91" t="s">
-        <v>483</v>
-      </c>
-      <c r="H78" s="91" t="s">
+      <c r="F78" s="87"/>
+      <c r="G78" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="I78" s="91" t="s">
+      <c r="H78" s="87" t="s">
         <v>485</v>
       </c>
-      <c r="J78" s="91" t="s">
+      <c r="I78" s="87" t="s">
         <v>486</v>
+      </c>
+      <c r="J78" s="87" t="s">
+        <v>487</v>
       </c>
       <c r="K78" s="69" t="s">
         <v>23</v>
@@ -9618,32 +9607,32 @@
     </row>
     <row r="79" customFormat="1" ht="86.4" spans="1:11">
       <c r="A79" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D79" s="91" t="s">
-        <v>489</v>
+        <v>463</v>
+      </c>
+      <c r="D79" s="87" t="s">
+        <v>490</v>
       </c>
       <c r="E79" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91" t="s">
-        <v>489</v>
-      </c>
-      <c r="H79" s="91" t="s">
+      <c r="F79" s="87"/>
+      <c r="G79" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="I79" s="91" t="s">
+      <c r="H79" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="J79" s="91" t="s">
+      <c r="I79" s="87" t="s">
         <v>492</v>
+      </c>
+      <c r="J79" s="87" t="s">
+        <v>493</v>
       </c>
       <c r="K79" s="69" t="s">
         <v>23</v>
@@ -9651,26 +9640,26 @@
     </row>
     <row r="80" customFormat="1" ht="86.4" spans="1:11">
       <c r="A80" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E80" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F80" s="61"/>
       <c r="G80" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="H80" s="91" t="s">
         <v>496</v>
+      </c>
+      <c r="H80" s="87" t="s">
+        <v>497</v>
       </c>
       <c r="I80" s="56"/>
       <c r="J80" s="56"/>
@@ -9678,32 +9667,32 @@
     </row>
     <row r="81" customFormat="1" ht="115.2" spans="1:11">
       <c r="A81" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E81" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="61"/>
       <c r="G81" s="61" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H81" s="61" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I81" s="61" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J81" s="61" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K81" s="61" t="s">
         <v>23</v>
@@ -9711,131 +9700,131 @@
     </row>
     <row r="82" customFormat="1" ht="86.4" spans="1:11">
       <c r="A82" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>506</v>
-      </c>
-      <c r="E82" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="113"/>
-      <c r="G82" s="113" t="s">
         <v>507</v>
       </c>
-      <c r="H82" s="114" t="s">
+      <c r="E82" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="I82" s="114" t="s">
+      <c r="H82" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="J82" s="114" t="s">
+      <c r="I82" s="110" t="s">
         <v>510</v>
       </c>
-      <c r="K82" s="114" t="s">
+      <c r="J82" s="110" t="s">
+        <v>511</v>
+      </c>
+      <c r="K82" s="110" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="100.8" spans="1:11">
       <c r="A83" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="E83" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109" t="s">
+        <v>515</v>
+      </c>
+      <c r="H83" s="110" t="s">
+        <v>516</v>
+      </c>
+      <c r="I83" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="J83" s="110" t="s">
         <v>511</v>
       </c>
-      <c r="B83" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>513</v>
-      </c>
-      <c r="E83" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113" t="s">
-        <v>514</v>
-      </c>
-      <c r="H83" s="114" t="s">
-        <v>515</v>
-      </c>
-      <c r="I83" s="114" t="s">
-        <v>509</v>
-      </c>
-      <c r="J83" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="K83" s="114" t="s">
+      <c r="K83" s="110" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="86.4" spans="1:11">
       <c r="A84" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="E84" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" s="113"/>
-      <c r="G84" s="113" t="s">
         <v>519</v>
       </c>
-      <c r="H84" s="114" t="s">
+      <c r="E84" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="109"/>
+      <c r="G84" s="109" t="s">
         <v>520</v>
       </c>
-      <c r="I84" s="114" t="s">
-        <v>509</v>
-      </c>
-      <c r="J84" s="114" t="s">
+      <c r="H84" s="110" t="s">
+        <v>521</v>
+      </c>
+      <c r="I84" s="110" t="s">
         <v>510</v>
       </c>
-      <c r="K84" s="114" t="s">
+      <c r="J84" s="110" t="s">
+        <v>511</v>
+      </c>
+      <c r="K84" s="110" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="86.4" spans="1:11">
       <c r="A85" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D85" s="91" t="s">
-        <v>523</v>
+        <v>463</v>
+      </c>
+      <c r="D85" s="87" t="s">
+        <v>524</v>
       </c>
       <c r="E85" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91" t="s">
-        <v>523</v>
-      </c>
-      <c r="H85" s="91" t="s">
+      <c r="F85" s="87"/>
+      <c r="G85" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="I85" s="91" t="s">
+      <c r="H85" s="87" t="s">
         <v>525</v>
       </c>
+      <c r="I85" s="87" t="s">
+        <v>526</v>
+      </c>
       <c r="J85" s="69" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K85" s="69" t="s">
         <v>23</v>
@@ -9843,32 +9832,32 @@
     </row>
     <row r="86" customFormat="1" ht="86.4" spans="1:11">
       <c r="A86" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D86" s="91" t="s">
-        <v>529</v>
+        <v>463</v>
+      </c>
+      <c r="D86" s="87" t="s">
+        <v>530</v>
       </c>
       <c r="E86" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91" t="s">
-        <v>529</v>
-      </c>
-      <c r="H86" s="91" t="s">
+      <c r="F86" s="87"/>
+      <c r="G86" s="87" t="s">
         <v>530</v>
       </c>
-      <c r="I86" s="91" t="s">
+      <c r="H86" s="87" t="s">
         <v>531</v>
       </c>
-      <c r="J86" s="91" t="s">
-        <v>531</v>
+      <c r="I86" s="87" t="s">
+        <v>532</v>
+      </c>
+      <c r="J86" s="87" t="s">
+        <v>532</v>
       </c>
       <c r="K86" s="69" t="s">
         <v>23</v>
@@ -9876,32 +9865,32 @@
     </row>
     <row r="87" customFormat="1" ht="86.4" spans="1:11">
       <c r="A87" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D87" s="91" t="s">
-        <v>534</v>
+        <v>463</v>
+      </c>
+      <c r="D87" s="87" t="s">
+        <v>535</v>
       </c>
       <c r="E87" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91" t="s">
-        <v>534</v>
-      </c>
-      <c r="H87" s="91" t="s">
+      <c r="F87" s="87"/>
+      <c r="G87" s="87" t="s">
         <v>535</v>
       </c>
-      <c r="I87" s="91" t="s">
+      <c r="H87" s="87" t="s">
         <v>536</v>
       </c>
+      <c r="I87" s="87" t="s">
+        <v>537</v>
+      </c>
       <c r="J87" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K87" s="69" t="s">
         <v>23</v>
@@ -9909,32 +9898,32 @@
     </row>
     <row r="88" ht="86.4" spans="1:11">
       <c r="A88" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D88" s="91" t="s">
-        <v>539</v>
+        <v>463</v>
+      </c>
+      <c r="D88" s="87" t="s">
+        <v>540</v>
       </c>
       <c r="E88" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="H88" s="91" t="s">
+      <c r="F88" s="87"/>
+      <c r="G88" s="87" t="s">
         <v>540</v>
       </c>
-      <c r="I88" s="91" t="s">
+      <c r="H88" s="87" t="s">
         <v>541</v>
       </c>
+      <c r="I88" s="87" t="s">
+        <v>542</v>
+      </c>
       <c r="J88" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K88" s="69" t="s">
         <v>23</v>
@@ -9942,32 +9931,32 @@
     </row>
     <row r="89" ht="129.6" spans="1:11">
       <c r="A89" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="C89" s="91" t="s">
         <v>544</v>
       </c>
+      <c r="C89" s="87" t="s">
+        <v>545</v>
+      </c>
       <c r="D89" s="61" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E89" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F89" s="61"/>
       <c r="G89" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J89" s="61" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K89" s="61" t="s">
         <v>23</v>
@@ -9975,32 +9964,32 @@
     </row>
     <row r="90" ht="28.8" spans="1:11">
       <c r="A90" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>551</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D90" s="115" t="s">
         <v>552</v>
+      </c>
+      <c r="C90" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>553</v>
       </c>
       <c r="E90" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="61"/>
       <c r="G90" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H90" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="I90" s="131" t="s">
         <v>554</v>
       </c>
-      <c r="J90" s="131" t="s">
+      <c r="I90" s="127" t="s">
         <v>555</v>
+      </c>
+      <c r="J90" s="127" t="s">
+        <v>556</v>
       </c>
       <c r="K90" s="61" t="s">
         <v>23</v>
@@ -10008,32 +9997,32 @@
     </row>
     <row r="91" ht="57.6" spans="1:11">
       <c r="A91" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="C91" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D91" s="115" t="s">
         <v>558</v>
+      </c>
+      <c r="C91" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D91" s="111" t="s">
+        <v>559</v>
       </c>
       <c r="E91" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F91" s="61"/>
       <c r="G91" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H91" s="61" t="s">
-        <v>559</v>
-      </c>
-      <c r="I91" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="J91" s="122" t="s">
+      <c r="I91" s="118" t="s">
         <v>561</v>
+      </c>
+      <c r="J91" s="118" t="s">
+        <v>562</v>
       </c>
       <c r="K91" s="61" t="s">
         <v>23</v>
@@ -10041,32 +10030,32 @@
     </row>
     <row r="92" ht="129.6" spans="1:11">
       <c r="A92" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>563</v>
-      </c>
-      <c r="C92" s="91" t="s">
-        <v>544</v>
+        <v>564</v>
+      </c>
+      <c r="C92" s="87" t="s">
+        <v>545</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E92" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F92" s="61"/>
       <c r="G92" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H92" s="61" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I92" s="61" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J92" s="61" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K92" s="61" t="s">
         <v>23</v>
@@ -10074,131 +10063,131 @@
     </row>
     <row r="93" ht="43.2" spans="1:11">
       <c r="A93" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="C93" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D93" s="115" t="s">
         <v>570</v>
+      </c>
+      <c r="C93" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="111" t="s">
+        <v>571</v>
       </c>
       <c r="E93" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F93" s="61"/>
       <c r="G93" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="K93" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="K93" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" ht="28.8" spans="1:11">
       <c r="A94" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="C94" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D94" s="115" t="s">
         <v>576</v>
+      </c>
+      <c r="C94" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D94" s="111" t="s">
+        <v>577</v>
       </c>
       <c r="E94" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="61"/>
       <c r="G94" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H94" s="61" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I94" s="61" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J94" s="61" t="s">
-        <v>579</v>
-      </c>
-      <c r="K94" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="K94" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" ht="28.8" spans="1:11">
       <c r="A95" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>581</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>544</v>
+        <v>582</v>
+      </c>
+      <c r="C95" s="87" t="s">
+        <v>545</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E95" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F95" s="61"/>
       <c r="G95" s="61" t="s">
-        <v>546</v>
-      </c>
-      <c r="H95" s="94" t="s">
-        <v>582</v>
+        <v>547</v>
+      </c>
+      <c r="H95" s="90" t="s">
+        <v>583</v>
       </c>
       <c r="I95" s="61" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J95" s="61" t="s">
-        <v>584</v>
-      </c>
-      <c r="K95" s="94" t="s">
+        <v>585</v>
+      </c>
+      <c r="K95" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:11">
       <c r="A96" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="C96" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D96" s="115" t="s">
         <v>587</v>
+      </c>
+      <c r="C96" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>588</v>
       </c>
       <c r="E96" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F96" s="61"/>
       <c r="G96" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H96" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="I96" s="131" t="s">
         <v>554</v>
       </c>
-      <c r="J96" s="131" t="s">
+      <c r="I96" s="127" t="s">
         <v>555</v>
+      </c>
+      <c r="J96" s="127" t="s">
+        <v>556</v>
       </c>
       <c r="K96" s="61" t="s">
         <v>23</v>
@@ -10206,32 +10195,32 @@
     </row>
     <row r="97" ht="57.6" spans="1:11">
       <c r="A97" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B97" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="C97" s="91" t="s">
-        <v>544</v>
-      </c>
-      <c r="D97" s="115" t="s">
         <v>590</v>
+      </c>
+      <c r="C97" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>591</v>
       </c>
       <c r="E97" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F97" s="61"/>
       <c r="G97" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>559</v>
-      </c>
-      <c r="I97" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="J97" s="122" t="s">
+      <c r="I97" s="118" t="s">
         <v>561</v>
+      </c>
+      <c r="J97" s="118" t="s">
+        <v>562</v>
       </c>
       <c r="K97" s="61" t="s">
         <v>23</v>
@@ -10239,32 +10228,32 @@
     </row>
     <row r="98" ht="129.6" spans="1:11">
       <c r="A98" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>592</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>544</v>
+        <v>593</v>
+      </c>
+      <c r="C98" s="87" t="s">
+        <v>545</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E98" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="61"/>
       <c r="G98" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H98" s="61" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I98" s="61" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J98" s="61" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K98" s="61" t="s">
         <v>23</v>
@@ -10272,32 +10261,32 @@
     </row>
     <row r="99" ht="115.2" spans="1:11">
       <c r="A99" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="C99" s="92" t="s">
         <v>599</v>
       </c>
+      <c r="C99" s="88" t="s">
+        <v>600</v>
+      </c>
       <c r="D99" s="61" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E99" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116" t="s">
-        <v>601</v>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112" t="s">
+        <v>602</v>
       </c>
       <c r="H99" s="61" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I99" s="61" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J99" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K99" s="61" t="s">
         <v>23</v>
@@ -10305,32 +10294,32 @@
     </row>
     <row r="100" ht="57.6" spans="1:11">
       <c r="A100" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="C100" s="92" t="s">
-        <v>599</v>
+        <v>607</v>
+      </c>
+      <c r="C100" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E100" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="116"/>
-      <c r="G100" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H100" s="117" t="s">
-        <v>608</v>
-      </c>
-      <c r="I100" s="122" t="s">
+      <c r="F100" s="112"/>
+      <c r="G100" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H100" s="113" t="s">
         <v>609</v>
       </c>
+      <c r="I100" s="118" t="s">
+        <v>610</v>
+      </c>
       <c r="J100" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K100" s="61" t="s">
         <v>23</v>
@@ -10338,32 +10327,32 @@
     </row>
     <row r="101" ht="43.2" spans="1:11">
       <c r="A101" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B101" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="C101" s="88" t="s">
+        <v>600</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="112"/>
+      <c r="G101" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H101" s="113" t="s">
+        <v>609</v>
+      </c>
+      <c r="I101" s="118" t="s">
+        <v>615</v>
+      </c>
+      <c r="J101" t="s">
         <v>611</v>
-      </c>
-      <c r="B101" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="C101" s="92" t="s">
-        <v>599</v>
-      </c>
-      <c r="D101" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H101" s="117" t="s">
-        <v>608</v>
-      </c>
-      <c r="I101" s="122" t="s">
-        <v>614</v>
-      </c>
-      <c r="J101" t="s">
-        <v>610</v>
       </c>
       <c r="K101" s="61" t="s">
         <v>23</v>
@@ -10371,32 +10360,32 @@
     </row>
     <row r="102" ht="28.8" spans="1:11">
       <c r="A102" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>616</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>599</v>
+        <v>617</v>
+      </c>
+      <c r="C102" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E102" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="116"/>
-      <c r="G102" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H102" s="117" t="s">
-        <v>618</v>
-      </c>
-      <c r="I102" s="132" t="s">
+      <c r="F102" s="112"/>
+      <c r="G102" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H102" s="113" t="s">
         <v>619</v>
       </c>
-      <c r="J102" s="132" t="s">
+      <c r="I102" s="128" t="s">
         <v>620</v>
+      </c>
+      <c r="J102" s="128" t="s">
+        <v>621</v>
       </c>
       <c r="K102" s="61" t="s">
         <v>23</v>
@@ -10404,32 +10393,32 @@
     </row>
     <row r="103" ht="28.8" spans="1:11">
       <c r="A103" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>622</v>
-      </c>
-      <c r="C103" s="92" t="s">
-        <v>599</v>
+        <v>623</v>
+      </c>
+      <c r="C103" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E103" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H103" s="117" t="s">
-        <v>624</v>
-      </c>
-      <c r="I103" s="117" t="s">
+      <c r="F103" s="112"/>
+      <c r="G103" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H103" s="113" t="s">
         <v>625</v>
       </c>
-      <c r="J103" s="117" t="s">
+      <c r="I103" s="113" t="s">
         <v>626</v>
+      </c>
+      <c r="J103" s="113" t="s">
+        <v>627</v>
       </c>
       <c r="K103" s="61" t="s">
         <v>23</v>
@@ -10437,65 +10426,65 @@
     </row>
     <row r="104" ht="28.8" spans="1:11">
       <c r="A104" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>628</v>
-      </c>
-      <c r="C104" s="92" t="s">
-        <v>599</v>
+        <v>629</v>
+      </c>
+      <c r="C104" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E104" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H104" s="118" t="s">
-        <v>630</v>
-      </c>
-      <c r="I104" s="118" t="s">
+      <c r="F104" s="112"/>
+      <c r="G104" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H104" s="114" t="s">
         <v>631</v>
       </c>
-      <c r="J104" s="118" t="s">
+      <c r="I104" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="K104" s="123" t="s">
+      <c r="J104" s="114" t="s">
+        <v>633</v>
+      </c>
+      <c r="K104" s="119" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:11">
       <c r="A105" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>634</v>
-      </c>
-      <c r="C105" s="92" t="s">
-        <v>599</v>
+        <v>635</v>
+      </c>
+      <c r="C105" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E105" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H105" s="117" t="s">
-        <v>636</v>
-      </c>
-      <c r="I105" s="117" t="s">
+      <c r="F105" s="112"/>
+      <c r="G105" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H105" s="113" t="s">
         <v>637</v>
       </c>
-      <c r="J105" s="117" t="s">
+      <c r="I105" s="113" t="s">
         <v>638</v>
+      </c>
+      <c r="J105" s="113" t="s">
+        <v>639</v>
       </c>
       <c r="K105" s="61" t="s">
         <v>23</v>
@@ -10503,32 +10492,32 @@
     </row>
     <row r="106" ht="28.8" spans="1:11">
       <c r="A106" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="C106" s="92" t="s">
-        <v>599</v>
+        <v>641</v>
+      </c>
+      <c r="C106" s="88" t="s">
+        <v>600</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E106" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="116"/>
-      <c r="G106" s="116" t="s">
-        <v>601</v>
-      </c>
-      <c r="H106" s="118" t="s">
-        <v>642</v>
-      </c>
-      <c r="I106" s="117" t="s">
+      <c r="F106" s="112"/>
+      <c r="G106" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="H106" s="114" t="s">
         <v>643</v>
       </c>
-      <c r="J106" s="117" t="s">
+      <c r="I106" s="113" t="s">
         <v>644</v>
+      </c>
+      <c r="J106" s="113" t="s">
+        <v>645</v>
       </c>
       <c r="K106" s="61" t="s">
         <v>23</v>
@@ -10536,32 +10525,32 @@
     </row>
     <row r="107" ht="129.6" spans="1:11">
       <c r="A107" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>646</v>
-      </c>
-      <c r="C107" s="91" t="s">
         <v>647</v>
       </c>
+      <c r="C107" s="87" t="s">
+        <v>648</v>
+      </c>
       <c r="D107" s="61" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E107" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="61"/>
       <c r="G107" s="61" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H107" s="61" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I107" s="61" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J107" s="61" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K107" s="61" t="s">
         <v>23</v>
@@ -10569,164 +10558,164 @@
     </row>
     <row r="108" ht="28.8" spans="1:11">
       <c r="A108" s="12" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>651</v>
-      </c>
-      <c r="C108" s="91" t="s">
-        <v>647</v>
+        <v>652</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>648</v>
       </c>
       <c r="D108" s="61" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E108" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="61"/>
       <c r="G108" s="61" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H108" s="61" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I108" s="61" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J108" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="K108" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="K108" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="109" ht="28.8" spans="1:11">
       <c r="A109" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="C109" s="91" t="s">
-        <v>647</v>
+        <v>655</v>
+      </c>
+      <c r="C109" s="87" t="s">
+        <v>648</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E109" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F109" s="61"/>
       <c r="G109" s="61" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H109" s="61" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I109" s="61" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J109" s="61" t="s">
-        <v>579</v>
-      </c>
-      <c r="K109" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="K109" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:11">
       <c r="A110" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C110" s="69" t="s">
-        <v>658</v>
-      </c>
-      <c r="D110" s="91" t="s">
         <v>659</v>
       </c>
+      <c r="D110" s="87" t="s">
+        <v>660</v>
+      </c>
       <c r="E110" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91" t="s">
-        <v>659</v>
-      </c>
-      <c r="H110" s="91" t="s">
+      <c r="F110" s="87"/>
+      <c r="G110" s="87" t="s">
         <v>660</v>
       </c>
-      <c r="I110" s="91" t="s">
+      <c r="H110" s="87" t="s">
         <v>661</v>
       </c>
-      <c r="J110" s="91" t="s">
+      <c r="I110" s="87" t="s">
         <v>662</v>
       </c>
-      <c r="K110" s="94" t="s">
+      <c r="J110" s="87" t="s">
+        <v>663</v>
+      </c>
+      <c r="K110" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" ht="115.2" spans="1:11">
       <c r="A111" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>658</v>
-      </c>
-      <c r="D111" s="91" t="s">
-        <v>665</v>
+        <v>659</v>
+      </c>
+      <c r="D111" s="87" t="s">
+        <v>666</v>
       </c>
       <c r="E111" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91" t="s">
-        <v>665</v>
-      </c>
-      <c r="H111" s="91" t="s">
+      <c r="F111" s="87"/>
+      <c r="G111" s="87" t="s">
         <v>666</v>
       </c>
-      <c r="I111" s="91" t="s">
+      <c r="H111" s="87" t="s">
         <v>667</v>
       </c>
+      <c r="I111" s="87" t="s">
+        <v>668</v>
+      </c>
       <c r="J111" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="K111" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" ht="129.6" spans="1:11">
       <c r="A112" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>658</v>
-      </c>
-      <c r="D112" s="91" t="s">
-        <v>670</v>
+        <v>659</v>
+      </c>
+      <c r="D112" s="87" t="s">
+        <v>671</v>
       </c>
       <c r="E112" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="91"/>
-      <c r="G112" s="91" t="s">
-        <v>670</v>
-      </c>
-      <c r="H112" s="91" t="s">
+      <c r="F112" s="87"/>
+      <c r="G112" s="87" t="s">
         <v>671</v>
       </c>
-      <c r="I112" s="91" t="s">
+      <c r="H112" s="87" t="s">
         <v>672</v>
       </c>
+      <c r="I112" s="87" t="s">
+        <v>673</v>
+      </c>
       <c r="J112" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K112" s="69" t="s">
         <v>23</v>
@@ -10734,32 +10723,32 @@
     </row>
     <row r="113" ht="86.4" spans="1:11">
       <c r="A113" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C113" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D113" s="91" t="s">
-        <v>675</v>
+        <v>463</v>
+      </c>
+      <c r="D113" s="87" t="s">
+        <v>676</v>
       </c>
       <c r="E113" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91" t="s">
-        <v>676</v>
-      </c>
-      <c r="H113" s="91" t="s">
+      <c r="F113" s="87"/>
+      <c r="G113" s="87" t="s">
         <v>677</v>
       </c>
-      <c r="I113" s="91" t="s">
+      <c r="H113" s="87" t="s">
         <v>678</v>
       </c>
+      <c r="I113" s="87" t="s">
+        <v>679</v>
+      </c>
       <c r="J113" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K113" s="69" t="s">
         <v>23</v>
@@ -10767,32 +10756,32 @@
     </row>
     <row r="114" ht="86.4" spans="1:11">
       <c r="A114" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C114" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D114" s="91" t="s">
-        <v>681</v>
+        <v>463</v>
+      </c>
+      <c r="D114" s="87" t="s">
+        <v>682</v>
       </c>
       <c r="E114" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F114" s="91"/>
-      <c r="G114" s="91" t="s">
-        <v>681</v>
-      </c>
-      <c r="H114" s="91" t="s">
+      <c r="F114" s="87"/>
+      <c r="G114" s="87" t="s">
         <v>682</v>
       </c>
-      <c r="I114" s="91" t="s">
+      <c r="H114" s="87" t="s">
         <v>683</v>
       </c>
-      <c r="J114" s="91" t="s">
+      <c r="I114" s="87" t="s">
         <v>684</v>
+      </c>
+      <c r="J114" s="87" t="s">
+        <v>685</v>
       </c>
       <c r="K114" s="69" t="s">
         <v>23</v>
@@ -10800,32 +10789,32 @@
     </row>
     <row r="115" ht="86.4" spans="1:11">
       <c r="A115" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D115" s="91" t="s">
-        <v>687</v>
+        <v>463</v>
+      </c>
+      <c r="D115" s="87" t="s">
+        <v>688</v>
       </c>
       <c r="E115" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91" t="s">
-        <v>687</v>
-      </c>
-      <c r="H115" s="91" t="s">
+      <c r="F115" s="87"/>
+      <c r="G115" s="87" t="s">
         <v>688</v>
       </c>
-      <c r="I115" s="91" t="s">
+      <c r="H115" s="87" t="s">
         <v>689</v>
       </c>
+      <c r="I115" s="87" t="s">
+        <v>690</v>
+      </c>
       <c r="J115" s="69" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K115" s="69" t="s">
         <v>23</v>
@@ -10833,32 +10822,32 @@
     </row>
     <row r="116" ht="86.4" spans="1:11">
       <c r="A116" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B116" s="57" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C116" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="D116" s="91" t="s">
-        <v>693</v>
+        <v>463</v>
+      </c>
+      <c r="D116" s="87" t="s">
+        <v>694</v>
       </c>
       <c r="E116" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91" t="s">
-        <v>693</v>
-      </c>
-      <c r="H116" s="91" t="s">
+      <c r="F116" s="87"/>
+      <c r="G116" s="87" t="s">
         <v>694</v>
       </c>
-      <c r="I116" s="91" t="s">
+      <c r="H116" s="87" t="s">
         <v>695</v>
       </c>
+      <c r="I116" s="87" t="s">
+        <v>696</v>
+      </c>
       <c r="J116" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K116" s="69" t="s">
         <v>23</v>
@@ -10866,32 +10855,32 @@
     </row>
     <row r="117" ht="115.2" spans="1:11">
       <c r="A117" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>698</v>
-      </c>
-      <c r="D117" s="91" t="s">
         <v>699</v>
       </c>
+      <c r="D117" s="87" t="s">
+        <v>700</v>
+      </c>
       <c r="E117" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91" t="s">
-        <v>699</v>
-      </c>
-      <c r="H117" s="91" t="s">
+      <c r="F117" s="87"/>
+      <c r="G117" s="87" t="s">
         <v>700</v>
       </c>
-      <c r="I117" s="91" t="s">
+      <c r="H117" s="87" t="s">
         <v>701</v>
       </c>
-      <c r="J117" s="91" t="s">
+      <c r="I117" s="87" t="s">
         <v>702</v>
+      </c>
+      <c r="J117" s="87" t="s">
+        <v>703</v>
       </c>
       <c r="K117" s="69" t="s">
         <v>23</v>
@@ -10899,32 +10888,32 @@
     </row>
     <row r="118" ht="115.2" spans="1:11">
       <c r="A118" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C118" s="69" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E118" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="69"/>
       <c r="G118" s="69" t="s">
-        <v>705</v>
-      </c>
-      <c r="H118" s="91" t="s">
         <v>706</v>
       </c>
+      <c r="H118" s="87" t="s">
+        <v>707</v>
+      </c>
       <c r="I118" s="69" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J118" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K118" s="69" t="s">
         <v>23</v>
@@ -10932,32 +10921,32 @@
     </row>
     <row r="119" ht="100.8" spans="1:11">
       <c r="A119" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>698</v>
-      </c>
-      <c r="D119" s="91" t="s">
-        <v>710</v>
+        <v>699</v>
+      </c>
+      <c r="D119" s="87" t="s">
+        <v>711</v>
       </c>
       <c r="E119" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91" t="s">
-        <v>710</v>
-      </c>
-      <c r="H119" s="91" t="s">
+      <c r="F119" s="87"/>
+      <c r="G119" s="87" t="s">
         <v>711</v>
       </c>
-      <c r="I119" s="91" t="s">
+      <c r="H119" s="87" t="s">
         <v>712</v>
       </c>
+      <c r="I119" s="87" t="s">
+        <v>713</v>
+      </c>
       <c r="J119" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K119" s="69" t="s">
         <v>23</v>
@@ -10965,32 +10954,32 @@
     </row>
     <row r="120" ht="100.8" spans="1:11">
       <c r="A120" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C120" s="69" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D120" s="69" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E120" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="69"/>
       <c r="G120" s="69" t="s">
-        <v>715</v>
-      </c>
-      <c r="H120" s="91" t="s">
         <v>716</v>
       </c>
-      <c r="I120" s="91" t="s">
+      <c r="H120" s="87" t="s">
         <v>717</v>
       </c>
-      <c r="J120" s="91" t="s">
-        <v>717</v>
+      <c r="I120" s="87" t="s">
+        <v>718</v>
+      </c>
+      <c r="J120" s="87" t="s">
+        <v>718</v>
       </c>
       <c r="K120" s="69" t="s">
         <v>23</v>
@@ -10998,32 +10987,32 @@
     </row>
     <row r="121" ht="115.2" spans="1:11">
       <c r="A121" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D121" s="69" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E121" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F121" s="69"/>
       <c r="G121" s="69" t="s">
-        <v>720</v>
-      </c>
-      <c r="H121" s="91" t="s">
         <v>721</v>
       </c>
-      <c r="I121" s="91" t="s">
+      <c r="H121" s="87" t="s">
         <v>722</v>
       </c>
+      <c r="I121" s="87" t="s">
+        <v>723</v>
+      </c>
       <c r="J121" s="69" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K121" s="69" t="s">
         <v>23</v>
@@ -11031,32 +11020,32 @@
     </row>
     <row r="122" ht="115.2" spans="1:11">
       <c r="A122" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C122" s="69" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D122" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E122" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F122" s="69"/>
       <c r="G122" s="69" t="s">
-        <v>725</v>
-      </c>
-      <c r="H122" s="91" t="s">
         <v>726</v>
       </c>
-      <c r="I122" s="91" t="s">
+      <c r="H122" s="87" t="s">
         <v>727</v>
       </c>
+      <c r="I122" s="87" t="s">
+        <v>728</v>
+      </c>
       <c r="J122" s="69" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K122" s="69" t="s">
         <v>23</v>
@@ -11064,32 +11053,32 @@
     </row>
     <row r="123" ht="115.2" spans="1:11">
       <c r="A123" s="12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>698</v>
-      </c>
-      <c r="D123" s="91" t="s">
-        <v>730</v>
+        <v>699</v>
+      </c>
+      <c r="D123" s="87" t="s">
+        <v>731</v>
       </c>
       <c r="E123" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91" t="s">
-        <v>730</v>
-      </c>
-      <c r="H123" s="91" t="s">
+      <c r="F123" s="87"/>
+      <c r="G123" s="87" t="s">
         <v>731</v>
       </c>
-      <c r="I123" s="91" t="s">
+      <c r="H123" s="87" t="s">
         <v>732</v>
       </c>
-      <c r="J123" s="91" t="s">
+      <c r="I123" s="87" t="s">
         <v>733</v>
+      </c>
+      <c r="J123" s="87" t="s">
+        <v>734</v>
       </c>
       <c r="K123" s="69" t="s">
         <v>23</v>
@@ -11097,989 +11086,989 @@
     </row>
     <row r="124" ht="100.8" spans="1:11">
       <c r="A124" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B124" s="57" t="s">
-        <v>735</v>
-      </c>
-      <c r="C124" s="117" t="s">
         <v>736</v>
       </c>
-      <c r="D124" s="117" t="s">
+      <c r="C124" s="113" t="s">
         <v>737</v>
       </c>
-      <c r="E124" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F124" s="117"/>
-      <c r="G124" s="117" t="s">
+      <c r="D124" s="113" t="s">
         <v>738</v>
       </c>
-      <c r="H124" s="117" t="s">
+      <c r="E124" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="113"/>
+      <c r="G124" s="113" t="s">
         <v>739</v>
       </c>
-      <c r="I124" s="117" t="s">
+      <c r="H124" s="113" t="s">
         <v>740</v>
       </c>
-      <c r="J124" s="117" t="s">
+      <c r="I124" s="113" t="s">
         <v>741</v>
       </c>
-      <c r="K124" s="124" t="s">
+      <c r="J124" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K124" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" ht="100.8" spans="1:11">
       <c r="A125" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B125" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="C125" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="D125" s="113" t="s">
+        <v>745</v>
+      </c>
+      <c r="E125" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="113"/>
+      <c r="G125" s="113" t="s">
+        <v>746</v>
+      </c>
+      <c r="H125" s="113" t="s">
+        <v>747</v>
+      </c>
+      <c r="I125" s="113" t="s">
+        <v>748</v>
+      </c>
+      <c r="J125" s="113" t="s">
         <v>742</v>
       </c>
-      <c r="B125" s="57" t="s">
-        <v>743</v>
-      </c>
-      <c r="C125" s="117" t="s">
-        <v>736</v>
-      </c>
-      <c r="D125" s="117" t="s">
-        <v>744</v>
-      </c>
-      <c r="E125" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" s="117"/>
-      <c r="G125" s="117" t="s">
-        <v>745</v>
-      </c>
-      <c r="H125" s="117" t="s">
-        <v>746</v>
-      </c>
-      <c r="I125" s="117" t="s">
-        <v>747</v>
-      </c>
-      <c r="J125" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K125" s="124" t="s">
+      <c r="K125" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="126" ht="115.2" spans="1:11">
       <c r="A126" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B126" s="57" t="s">
-        <v>749</v>
-      </c>
-      <c r="C126" s="117" t="s">
-        <v>736</v>
-      </c>
-      <c r="D126" s="117" t="s">
         <v>750</v>
       </c>
-      <c r="E126" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" s="117"/>
-      <c r="G126" s="117" t="s">
+      <c r="C126" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="D126" s="113" t="s">
         <v>751</v>
       </c>
-      <c r="H126" s="117" t="s">
+      <c r="E126" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="113"/>
+      <c r="G126" s="113" t="s">
         <v>752</v>
       </c>
-      <c r="I126" s="117" t="s">
+      <c r="H126" s="113" t="s">
         <v>753</v>
       </c>
-      <c r="J126" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K126" s="124" t="s">
+      <c r="I126" s="113" t="s">
+        <v>754</v>
+      </c>
+      <c r="J126" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K126" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="127" ht="129.6" spans="1:11">
       <c r="A127" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B127" s="57" t="s">
-        <v>755</v>
-      </c>
-      <c r="C127" s="117" t="s">
         <v>756</v>
       </c>
-      <c r="D127" s="117" t="s">
+      <c r="C127" s="113" t="s">
         <v>757</v>
       </c>
-      <c r="E127" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" s="117"/>
-      <c r="G127" s="117" t="s">
-        <v>757</v>
-      </c>
-      <c r="H127" s="117" t="s">
+      <c r="D127" s="113" t="s">
         <v>758</v>
       </c>
-      <c r="I127" s="117" t="s">
+      <c r="E127" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="113"/>
+      <c r="G127" s="113" t="s">
+        <v>758</v>
+      </c>
+      <c r="H127" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="J127" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K127" s="124" t="s">
+      <c r="I127" s="113" t="s">
+        <v>760</v>
+      </c>
+      <c r="J127" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K127" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="128" ht="129.6" spans="1:11">
       <c r="A128" s="12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B128" s="57" t="s">
-        <v>761</v>
-      </c>
-      <c r="C128" s="117" t="s">
         <v>762</v>
       </c>
-      <c r="D128" s="117" t="s">
+      <c r="C128" s="113" t="s">
         <v>763</v>
       </c>
-      <c r="E128" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F128" s="117"/>
-      <c r="G128" s="117" t="s">
-        <v>763</v>
-      </c>
-      <c r="H128" s="117" t="s">
+      <c r="D128" s="113" t="s">
         <v>764</v>
       </c>
-      <c r="I128" s="117" t="s">
+      <c r="E128" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="113"/>
+      <c r="G128" s="113" t="s">
+        <v>764</v>
+      </c>
+      <c r="H128" s="113" t="s">
         <v>765</v>
       </c>
-      <c r="J128" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K128" s="124" t="s">
+      <c r="I128" s="113" t="s">
+        <v>766</v>
+      </c>
+      <c r="J128" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K128" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="129" ht="129.6" spans="1:11">
       <c r="A129" s="12" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B129" s="57" t="s">
-        <v>767</v>
-      </c>
-      <c r="C129" s="117" t="s">
         <v>768</v>
       </c>
-      <c r="D129" s="117" t="s">
+      <c r="C129" s="113" t="s">
         <v>769</v>
       </c>
-      <c r="E129" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" s="117"/>
-      <c r="G129" s="117" t="s">
-        <v>769</v>
-      </c>
-      <c r="H129" s="117" t="s">
+      <c r="D129" s="113" t="s">
         <v>770</v>
       </c>
-      <c r="I129" s="117" t="s">
+      <c r="E129" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="113"/>
+      <c r="G129" s="113" t="s">
+        <v>770</v>
+      </c>
+      <c r="H129" s="113" t="s">
         <v>771</v>
       </c>
-      <c r="J129" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K129" s="124" t="s">
+      <c r="I129" s="113" t="s">
+        <v>772</v>
+      </c>
+      <c r="J129" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K129" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="130" ht="129.6" spans="1:11">
       <c r="A130" s="12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>773</v>
-      </c>
-      <c r="C130" s="117" t="s">
         <v>774</v>
       </c>
-      <c r="D130" s="117" t="s">
+      <c r="C130" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="E130" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="117"/>
-      <c r="G130" s="117" t="s">
-        <v>775</v>
-      </c>
-      <c r="H130" s="117" t="s">
-        <v>758</v>
-      </c>
-      <c r="I130" s="117" t="s">
+      <c r="D130" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="J130" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K130" s="124" t="s">
+      <c r="E130" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="113"/>
+      <c r="G130" s="113" t="s">
+        <v>776</v>
+      </c>
+      <c r="H130" s="113" t="s">
+        <v>759</v>
+      </c>
+      <c r="I130" s="113" t="s">
+        <v>777</v>
+      </c>
+      <c r="J130" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K130" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="131" ht="129.6" spans="1:11">
       <c r="A131" s="12" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B131" s="57" t="s">
-        <v>778</v>
-      </c>
-      <c r="C131" s="117" t="s">
         <v>779</v>
       </c>
-      <c r="D131" s="117" t="s">
+      <c r="C131" s="113" t="s">
         <v>780</v>
       </c>
-      <c r="E131" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117" t="s">
-        <v>780</v>
-      </c>
-      <c r="H131" s="117" t="s">
-        <v>764</v>
-      </c>
-      <c r="I131" s="117" t="s">
+      <c r="D131" s="113" t="s">
         <v>781</v>
       </c>
-      <c r="J131" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K131" s="124" t="s">
+      <c r="E131" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="H131" s="113" t="s">
+        <v>765</v>
+      </c>
+      <c r="I131" s="113" t="s">
+        <v>782</v>
+      </c>
+      <c r="J131" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K131" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="132" ht="129.6" spans="1:11">
       <c r="A132" s="12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>783</v>
-      </c>
-      <c r="C132" s="117" t="s">
         <v>784</v>
       </c>
-      <c r="D132" s="117" t="s">
+      <c r="C132" s="113" t="s">
         <v>785</v>
       </c>
-      <c r="E132" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F132" s="117"/>
-      <c r="G132" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="H132" s="117" t="s">
+      <c r="D132" s="113" t="s">
         <v>786</v>
       </c>
-      <c r="I132" s="117" t="s">
+      <c r="E132" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="113"/>
+      <c r="G132" s="113" t="s">
+        <v>786</v>
+      </c>
+      <c r="H132" s="113" t="s">
         <v>787</v>
       </c>
-      <c r="J132" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K132" s="124" t="s">
+      <c r="I132" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="J132" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K132" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="133" ht="129.6" spans="1:11">
       <c r="A133" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>789</v>
-      </c>
-      <c r="C133" s="125" t="s">
         <v>790</v>
       </c>
-      <c r="D133" s="125" t="s">
+      <c r="C133" s="121" t="s">
         <v>791</v>
       </c>
-      <c r="E133" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="F133" s="117"/>
-      <c r="G133" s="117" t="s">
-        <v>791</v>
-      </c>
-      <c r="H133" s="125" t="s">
+      <c r="D133" s="121" t="s">
         <v>792</v>
       </c>
-      <c r="I133" s="125" t="s">
+      <c r="E133" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="113"/>
+      <c r="G133" s="113" t="s">
+        <v>792</v>
+      </c>
+      <c r="H133" s="121" t="s">
         <v>793</v>
       </c>
-      <c r="J133" s="125" t="s">
-        <v>741</v>
-      </c>
-      <c r="K133" s="124" t="s">
+      <c r="I133" s="121" t="s">
+        <v>794</v>
+      </c>
+      <c r="J133" s="121" t="s">
+        <v>742</v>
+      </c>
+      <c r="K133" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="134" ht="129.6" spans="1:11">
       <c r="A134" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B134" s="57" t="s">
-        <v>795</v>
-      </c>
-      <c r="C134" s="117" t="s">
         <v>796</v>
       </c>
-      <c r="D134" s="117" t="s">
+      <c r="C134" s="113" t="s">
         <v>797</v>
       </c>
-      <c r="E134" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F134" s="117"/>
-      <c r="G134" s="117" t="s">
-        <v>797</v>
-      </c>
-      <c r="H134" s="117" t="s">
+      <c r="D134" s="113" t="s">
         <v>798</v>
       </c>
-      <c r="I134" s="117" t="s">
+      <c r="E134" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="113"/>
+      <c r="G134" s="113" t="s">
+        <v>798</v>
+      </c>
+      <c r="H134" s="113" t="s">
         <v>799</v>
       </c>
-      <c r="J134" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K134" s="124" t="s">
+      <c r="I134" s="113" t="s">
+        <v>800</v>
+      </c>
+      <c r="J134" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K134" s="120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="135" ht="129.6" spans="1:11">
       <c r="A135" s="12" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B135" s="57" t="s">
-        <v>801</v>
-      </c>
-      <c r="C135" s="117" t="s">
         <v>802</v>
       </c>
-      <c r="D135" s="117" t="s">
+      <c r="C135" s="113" t="s">
         <v>803</v>
       </c>
-      <c r="E135" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F135" s="117"/>
-      <c r="G135" s="117" t="s">
-        <v>803</v>
-      </c>
-      <c r="H135" s="117" t="s">
+      <c r="D135" s="113" t="s">
         <v>804</v>
       </c>
-      <c r="I135" s="117" t="s">
-        <v>787</v>
-      </c>
-      <c r="J135" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K135" s="124" t="s">
+      <c r="E135" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="113"/>
+      <c r="G135" s="113" t="s">
+        <v>804</v>
+      </c>
+      <c r="H135" s="113" t="s">
         <v>805</v>
+      </c>
+      <c r="I135" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="J135" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K135" s="120" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="136" ht="144" spans="1:11">
       <c r="A136" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B136" s="57" t="s">
+        <v>808</v>
+      </c>
+      <c r="C136" s="113" t="s">
+        <v>809</v>
+      </c>
+      <c r="D136" s="113" t="s">
+        <v>810</v>
+      </c>
+      <c r="E136" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="113"/>
+      <c r="G136" s="113" t="s">
+        <v>810</v>
+      </c>
+      <c r="H136" s="113" t="s">
+        <v>811</v>
+      </c>
+      <c r="I136" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="J136" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="K136" s="123" t="s">
         <v>806</v>
-      </c>
-      <c r="B136" s="57" t="s">
-        <v>807</v>
-      </c>
-      <c r="C136" s="117" t="s">
-        <v>808</v>
-      </c>
-      <c r="D136" s="117" t="s">
-        <v>809</v>
-      </c>
-      <c r="E136" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="F136" s="117"/>
-      <c r="G136" s="117" t="s">
-        <v>809</v>
-      </c>
-      <c r="H136" s="117" t="s">
-        <v>810</v>
-      </c>
-      <c r="I136" s="117" t="s">
-        <v>787</v>
-      </c>
-      <c r="J136" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="K136" s="127" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="137" ht="100.8" spans="1:11">
       <c r="A137" s="12" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B137" s="57" t="s">
-        <v>812</v>
-      </c>
-      <c r="C137" s="117" t="s">
         <v>813</v>
       </c>
-      <c r="D137" s="127" t="s">
+      <c r="C137" s="113" t="s">
         <v>814</v>
       </c>
-      <c r="E137" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F137" s="117"/>
-      <c r="G137" s="117" t="s">
+      <c r="D137" s="123" t="s">
         <v>815</v>
       </c>
-      <c r="H137" s="117" t="s">
+      <c r="E137" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="113"/>
+      <c r="G137" s="113" t="s">
         <v>816</v>
       </c>
-      <c r="I137" s="117" t="s">
+      <c r="H137" s="113" t="s">
         <v>817</v>
       </c>
-      <c r="J137" s="127" t="s">
+      <c r="I137" s="113" t="s">
         <v>818</v>
       </c>
-      <c r="K137" s="127" t="s">
-        <v>805</v>
+      <c r="J137" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K137" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="138" ht="100.8" spans="1:11">
       <c r="A138" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="B138" s="57" t="s">
+        <v>821</v>
+      </c>
+      <c r="C138" s="113" t="s">
+        <v>822</v>
+      </c>
+      <c r="D138" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E138" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="113"/>
+      <c r="G138" s="113" t="s">
+        <v>823</v>
+      </c>
+      <c r="H138" s="113" t="s">
+        <v>824</v>
+      </c>
+      <c r="I138" s="113" t="s">
+        <v>825</v>
+      </c>
+      <c r="J138" s="123" t="s">
         <v>819</v>
       </c>
-      <c r="B138" s="57" t="s">
-        <v>820</v>
-      </c>
-      <c r="C138" s="117" t="s">
-        <v>821</v>
-      </c>
-      <c r="D138" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E138" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" s="117"/>
-      <c r="G138" s="117" t="s">
-        <v>822</v>
-      </c>
-      <c r="H138" s="117" t="s">
-        <v>823</v>
-      </c>
-      <c r="I138" s="117" t="s">
-        <v>824</v>
-      </c>
-      <c r="J138" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K138" s="127" t="s">
-        <v>805</v>
+      <c r="K138" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="139" ht="115.2" spans="1:11">
       <c r="A139" s="12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B139" s="57" t="s">
-        <v>826</v>
-      </c>
-      <c r="C139" s="117" t="s">
         <v>827</v>
       </c>
-      <c r="D139" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E139" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" s="127"/>
-      <c r="G139" s="127" t="s">
+      <c r="C139" s="113" t="s">
         <v>828</v>
       </c>
-      <c r="H139" s="117" t="s">
+      <c r="D139" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E139" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="123"/>
+      <c r="G139" s="123" t="s">
         <v>829</v>
       </c>
-      <c r="I139" s="117" t="s">
+      <c r="H139" s="113" t="s">
         <v>830</v>
       </c>
-      <c r="J139" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K139" s="127" t="s">
-        <v>805</v>
+      <c r="I139" s="113" t="s">
+        <v>831</v>
+      </c>
+      <c r="J139" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K139" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="140" ht="100.8" spans="1:11">
       <c r="A140" s="12" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>832</v>
-      </c>
-      <c r="C140" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="D140" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E140" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="117"/>
-      <c r="G140" s="117" t="s">
         <v>833</v>
       </c>
-      <c r="H140" s="117" t="s">
+      <c r="C140" s="113" t="s">
+        <v>828</v>
+      </c>
+      <c r="D140" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E140" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="113"/>
+      <c r="G140" s="113" t="s">
         <v>834</v>
       </c>
-      <c r="I140" s="117" t="s">
+      <c r="H140" s="113" t="s">
         <v>835</v>
       </c>
-      <c r="J140" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K140" s="127" t="s">
-        <v>805</v>
+      <c r="I140" s="113" t="s">
+        <v>836</v>
+      </c>
+      <c r="J140" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K140" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="141" ht="115.2" spans="1:11">
       <c r="A141" s="12" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B141" s="57" t="s">
-        <v>837</v>
-      </c>
-      <c r="C141" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="D141" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E141" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F141" s="117"/>
-      <c r="G141" s="117" t="s">
         <v>838</v>
       </c>
-      <c r="H141" s="117" t="s">
+      <c r="C141" s="113" t="s">
+        <v>828</v>
+      </c>
+      <c r="D141" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E141" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="113"/>
+      <c r="G141" s="113" t="s">
         <v>839</v>
       </c>
-      <c r="I141" s="117" t="s">
+      <c r="H141" s="113" t="s">
         <v>840</v>
       </c>
-      <c r="J141" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K141" s="127" t="s">
-        <v>805</v>
+      <c r="I141" s="113" t="s">
+        <v>841</v>
+      </c>
+      <c r="J141" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K141" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="142" ht="86.4" spans="1:11">
       <c r="A142" s="12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B142" s="57" t="s">
-        <v>842</v>
-      </c>
-      <c r="C142" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="D142" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E142" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" s="117"/>
-      <c r="G142" s="117" t="s">
         <v>843</v>
       </c>
-      <c r="H142" s="117" t="s">
+      <c r="C142" s="113" t="s">
+        <v>828</v>
+      </c>
+      <c r="D142" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E142" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="113"/>
+      <c r="G142" s="113" t="s">
         <v>844</v>
       </c>
-      <c r="I142" s="117" t="s">
+      <c r="H142" s="113" t="s">
         <v>845</v>
       </c>
-      <c r="J142" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K142" s="127" t="s">
-        <v>805</v>
+      <c r="I142" s="113" t="s">
+        <v>846</v>
+      </c>
+      <c r="J142" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K142" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="143" ht="100.8" spans="1:11">
       <c r="A143" s="12" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B143" s="57" t="s">
-        <v>847</v>
-      </c>
-      <c r="C143" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="D143" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E143" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F143" s="117"/>
-      <c r="G143" s="117" t="s">
         <v>848</v>
       </c>
-      <c r="H143" s="117" t="s">
+      <c r="C143" s="113" t="s">
+        <v>828</v>
+      </c>
+      <c r="D143" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E143" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="113"/>
+      <c r="G143" s="113" t="s">
         <v>849</v>
       </c>
-      <c r="I143" s="117" t="s">
+      <c r="H143" s="113" t="s">
         <v>850</v>
       </c>
-      <c r="J143" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K143" s="127" t="s">
-        <v>805</v>
+      <c r="I143" s="113" t="s">
+        <v>851</v>
+      </c>
+      <c r="J143" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K143" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="144" ht="100.8" spans="1:11">
       <c r="A144" s="12" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B144" s="57" t="s">
-        <v>852</v>
-      </c>
-      <c r="C144" s="117" t="s">
         <v>853</v>
       </c>
-      <c r="D144" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E144" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F144" s="117"/>
-      <c r="G144" s="117" t="s">
+      <c r="C144" s="113" t="s">
         <v>854</v>
       </c>
-      <c r="H144" s="117" t="s">
+      <c r="D144" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E144" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="113"/>
+      <c r="G144" s="113" t="s">
         <v>855</v>
       </c>
-      <c r="I144" s="117" t="s">
+      <c r="H144" s="113" t="s">
         <v>856</v>
       </c>
-      <c r="J144" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K144" s="127" t="s">
-        <v>805</v>
+      <c r="I144" s="113" t="s">
+        <v>857</v>
+      </c>
+      <c r="J144" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K144" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="145" ht="115.2" spans="1:11">
       <c r="A145" s="12" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>858</v>
-      </c>
-      <c r="C145" s="117" t="s">
-        <v>853</v>
-      </c>
-      <c r="D145" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E145" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F145" s="117"/>
-      <c r="G145" s="117" t="s">
         <v>859</v>
       </c>
-      <c r="H145" s="117" t="s">
+      <c r="C145" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="D145" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E145" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="113"/>
+      <c r="G145" s="113" t="s">
         <v>860</v>
       </c>
-      <c r="I145" s="117" t="s">
+      <c r="H145" s="113" t="s">
         <v>861</v>
       </c>
-      <c r="J145" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K145" s="127" t="s">
-        <v>805</v>
+      <c r="I145" s="113" t="s">
+        <v>862</v>
+      </c>
+      <c r="J145" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K145" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="146" ht="129.6" spans="1:11">
       <c r="A146" s="12" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B146" s="57" t="s">
-        <v>863</v>
-      </c>
-      <c r="C146" s="117" t="s">
-        <v>853</v>
-      </c>
-      <c r="D146" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E146" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F146" s="117"/>
-      <c r="G146" s="117" t="s">
         <v>864</v>
       </c>
-      <c r="H146" s="117" t="s">
+      <c r="C146" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="D146" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E146" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" s="113"/>
+      <c r="G146" s="113" t="s">
         <v>865</v>
       </c>
-      <c r="I146" s="117" t="s">
+      <c r="H146" s="113" t="s">
         <v>866</v>
       </c>
-      <c r="J146" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K146" s="127" t="s">
-        <v>805</v>
+      <c r="I146" s="113" t="s">
+        <v>867</v>
+      </c>
+      <c r="J146" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K146" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="147" ht="129.6" spans="1:11">
       <c r="A147" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B147" s="57" t="s">
-        <v>868</v>
-      </c>
-      <c r="C147" s="117" t="s">
-        <v>853</v>
-      </c>
-      <c r="D147" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E147" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F147" s="117"/>
-      <c r="G147" s="117" t="s">
         <v>869</v>
       </c>
-      <c r="H147" s="117" t="s">
+      <c r="C147" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="D147" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E147" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="113"/>
+      <c r="G147" s="113" t="s">
         <v>870</v>
       </c>
-      <c r="I147" s="117" t="s">
+      <c r="H147" s="113" t="s">
         <v>871</v>
       </c>
-      <c r="J147" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K147" s="127" t="s">
-        <v>805</v>
+      <c r="I147" s="113" t="s">
+        <v>872</v>
+      </c>
+      <c r="J147" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K147" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="148" ht="100.8" spans="1:11">
       <c r="A148" s="12" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>873</v>
-      </c>
-      <c r="C148" s="117" t="s">
-        <v>853</v>
-      </c>
-      <c r="D148" s="127" t="s">
-        <v>814</v>
-      </c>
-      <c r="E148" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F148" s="117"/>
-      <c r="G148" s="117" t="s">
         <v>874</v>
       </c>
-      <c r="H148" s="117" t="s">
+      <c r="C148" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="D148" s="123" t="s">
+        <v>815</v>
+      </c>
+      <c r="E148" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="113"/>
+      <c r="G148" s="113" t="s">
         <v>875</v>
       </c>
-      <c r="I148" s="117" t="s">
+      <c r="H148" s="113" t="s">
         <v>876</v>
       </c>
-      <c r="J148" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K148" s="127" t="s">
-        <v>805</v>
+      <c r="I148" s="113" t="s">
+        <v>877</v>
+      </c>
+      <c r="J148" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K148" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="149" ht="144" spans="1:11">
       <c r="A149" s="12" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>878</v>
-      </c>
-      <c r="C149" s="117" t="s">
         <v>879</v>
       </c>
-      <c r="D149" s="117" t="s">
+      <c r="C149" s="113" t="s">
         <v>880</v>
       </c>
-      <c r="E149" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F149" s="117"/>
-      <c r="G149" s="117" t="s">
+      <c r="D149" s="113" t="s">
         <v>881</v>
       </c>
-      <c r="H149" s="117" t="s">
+      <c r="E149" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="113"/>
+      <c r="G149" s="113" t="s">
         <v>882</v>
       </c>
-      <c r="I149" s="117" t="s">
+      <c r="H149" s="113" t="s">
         <v>883</v>
       </c>
-      <c r="J149" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K149" s="127" t="s">
-        <v>805</v>
+      <c r="I149" s="113" t="s">
+        <v>884</v>
+      </c>
+      <c r="J149" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K149" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="150" ht="158.4" spans="1:11">
       <c r="A150" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>885</v>
-      </c>
-      <c r="C150" s="117" t="s">
         <v>886</v>
       </c>
-      <c r="D150" s="117" t="s">
-        <v>880</v>
-      </c>
-      <c r="E150" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F150" s="117"/>
-      <c r="G150" s="117" t="s">
+      <c r="C150" s="113" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="117" t="s">
+      <c r="D150" s="113" t="s">
+        <v>881</v>
+      </c>
+      <c r="E150" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="113"/>
+      <c r="G150" s="113" t="s">
         <v>888</v>
       </c>
-      <c r="I150" s="117" t="s">
+      <c r="H150" s="113" t="s">
         <v>889</v>
       </c>
-      <c r="J150" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K150" s="127" t="s">
-        <v>805</v>
+      <c r="I150" s="113" t="s">
+        <v>890</v>
+      </c>
+      <c r="J150" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K150" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="151" ht="100.8" spans="1:11">
       <c r="A151" s="12" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>891</v>
-      </c>
-      <c r="C151" s="117" t="s">
         <v>892</v>
       </c>
-      <c r="D151" s="117" t="s">
-        <v>880</v>
-      </c>
-      <c r="E151" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F151" s="117"/>
-      <c r="G151" s="117" t="s">
+      <c r="C151" s="113" t="s">
         <v>893</v>
       </c>
-      <c r="H151" s="117" t="s">
+      <c r="D151" s="113" t="s">
+        <v>881</v>
+      </c>
+      <c r="E151" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="113"/>
+      <c r="G151" s="113" t="s">
         <v>894</v>
       </c>
-      <c r="I151" s="117" t="s">
+      <c r="H151" s="113" t="s">
         <v>895</v>
       </c>
-      <c r="J151" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K151" s="127" t="s">
-        <v>805</v>
+      <c r="I151" s="113" t="s">
+        <v>896</v>
+      </c>
+      <c r="J151" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K151" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="152" ht="115.2" spans="1:11">
       <c r="A152" s="12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>897</v>
-      </c>
-      <c r="C152" s="117" t="s">
         <v>898</v>
       </c>
-      <c r="D152" s="117" t="s">
-        <v>880</v>
-      </c>
-      <c r="E152" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F152" s="127"/>
-      <c r="G152" s="127" t="s">
+      <c r="C152" s="113" t="s">
         <v>899</v>
       </c>
-      <c r="H152" s="117" t="s">
+      <c r="D152" s="113" t="s">
+        <v>881</v>
+      </c>
+      <c r="E152" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="123"/>
+      <c r="G152" s="123" t="s">
         <v>900</v>
       </c>
-      <c r="I152" s="117" t="s">
+      <c r="H152" s="113" t="s">
         <v>901</v>
       </c>
-      <c r="J152" s="127" t="s">
-        <v>818</v>
-      </c>
-      <c r="K152" s="127" t="s">
-        <v>805</v>
+      <c r="I152" s="113" t="s">
+        <v>902</v>
+      </c>
+      <c r="J152" s="123" t="s">
+        <v>819</v>
+      </c>
+      <c r="K152" s="123" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="153" ht="115.2" spans="1:11">
       <c r="A153" s="12" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D153" s="91" t="s">
         <v>905</v>
       </c>
+      <c r="D153" s="87" t="s">
+        <v>906</v>
+      </c>
       <c r="E153" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91" t="s">
-        <v>906</v>
-      </c>
-      <c r="H153" s="91" t="s">
+      <c r="F153" s="87"/>
+      <c r="G153" s="87" t="s">
         <v>907</v>
       </c>
-      <c r="I153" s="91" t="s">
-        <v>906</v>
-      </c>
-      <c r="J153" s="91" t="s">
-        <v>906</v>
+      <c r="H153" s="87" t="s">
+        <v>908</v>
+      </c>
+      <c r="I153" s="87" t="s">
+        <v>907</v>
+      </c>
+      <c r="J153" s="87" t="s">
+        <v>907</v>
       </c>
       <c r="K153" s="69" t="s">
         <v>23</v>
@@ -12087,32 +12076,32 @@
     </row>
     <row r="154" ht="115.2" spans="1:11">
       <c r="A154" s="12" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D154" s="91" t="s">
-        <v>910</v>
+        <v>905</v>
+      </c>
+      <c r="D154" s="87" t="s">
+        <v>911</v>
       </c>
       <c r="E154" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F154" s="91"/>
-      <c r="G154" s="91" t="s">
-        <v>911</v>
-      </c>
-      <c r="H154" s="91" t="s">
+      <c r="F154" s="87"/>
+      <c r="G154" s="87" t="s">
         <v>912</v>
       </c>
-      <c r="I154" s="91" t="s">
-        <v>911</v>
+      <c r="H154" s="87" t="s">
+        <v>913</v>
+      </c>
+      <c r="I154" s="87" t="s">
+        <v>912</v>
       </c>
       <c r="J154" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K154" s="69" t="s">
         <v>23</v>
@@ -12120,32 +12109,32 @@
     </row>
     <row r="155" ht="115.2" spans="1:11">
       <c r="A155" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B155" s="57" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D155" s="91" t="s">
-        <v>915</v>
+        <v>905</v>
+      </c>
+      <c r="D155" s="87" t="s">
+        <v>916</v>
       </c>
       <c r="E155" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F155" s="91"/>
-      <c r="G155" s="91" t="s">
-        <v>916</v>
-      </c>
-      <c r="H155" s="91" t="s">
+      <c r="F155" s="87"/>
+      <c r="G155" s="87" t="s">
         <v>917</v>
       </c>
-      <c r="I155" s="91" t="s">
+      <c r="H155" s="87" t="s">
         <v>918</v>
       </c>
+      <c r="I155" s="87" t="s">
+        <v>919</v>
+      </c>
       <c r="J155" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K155" s="69" t="s">
         <v>23</v>
@@ -12153,32 +12142,32 @@
     </row>
     <row r="156" ht="129.6" spans="1:11">
       <c r="A156" s="12" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D156" s="91" t="s">
-        <v>921</v>
+        <v>905</v>
+      </c>
+      <c r="D156" s="87" t="s">
+        <v>922</v>
       </c>
       <c r="E156" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="91"/>
-      <c r="G156" s="91" t="s">
-        <v>922</v>
-      </c>
-      <c r="H156" s="91" t="s">
+      <c r="F156" s="87"/>
+      <c r="G156" s="87" t="s">
         <v>923</v>
       </c>
-      <c r="I156" s="91" t="s">
+      <c r="H156" s="87" t="s">
         <v>924</v>
       </c>
+      <c r="I156" s="87" t="s">
+        <v>925</v>
+      </c>
       <c r="J156" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K156" s="69" t="s">
         <v>23</v>
@@ -12186,32 +12175,32 @@
     </row>
     <row r="157" ht="129.6" spans="1:11">
       <c r="A157" s="12" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>904</v>
-      </c>
-      <c r="D157" s="91" t="s">
-        <v>927</v>
+        <v>905</v>
+      </c>
+      <c r="D157" s="87" t="s">
+        <v>928</v>
       </c>
       <c r="E157" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91" t="s">
-        <v>928</v>
-      </c>
-      <c r="H157" s="91" t="s">
+      <c r="F157" s="87"/>
+      <c r="G157" s="87" t="s">
         <v>929</v>
       </c>
-      <c r="I157" s="91" t="s">
+      <c r="H157" s="87" t="s">
         <v>930</v>
       </c>
+      <c r="I157" s="87" t="s">
+        <v>931</v>
+      </c>
       <c r="J157" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K157" s="69" t="s">
         <v>23</v>
@@ -12219,32 +12208,32 @@
     </row>
     <row r="158" ht="115.2" spans="1:11">
       <c r="A158" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B158" s="57" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D158" s="91" t="s">
         <v>934</v>
       </c>
+      <c r="D158" s="87" t="s">
+        <v>935</v>
+      </c>
       <c r="E158" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91" t="s">
-        <v>935</v>
-      </c>
-      <c r="H158" s="91" t="s">
+      <c r="F158" s="87"/>
+      <c r="G158" s="87" t="s">
         <v>936</v>
       </c>
-      <c r="I158" s="91" t="s">
+      <c r="H158" s="87" t="s">
         <v>937</v>
       </c>
+      <c r="I158" s="87" t="s">
+        <v>938</v>
+      </c>
       <c r="J158" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K158" s="69" t="s">
         <v>23</v>
@@ -12252,32 +12241,32 @@
     </row>
     <row r="159" ht="129.6" spans="1:11">
       <c r="A159" s="12" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D159" s="91" t="s">
-        <v>940</v>
+        <v>934</v>
+      </c>
+      <c r="D159" s="87" t="s">
+        <v>941</v>
       </c>
       <c r="E159" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F159" s="91"/>
-      <c r="G159" s="91" t="s">
-        <v>941</v>
-      </c>
-      <c r="H159" s="91" t="s">
+      <c r="F159" s="87"/>
+      <c r="G159" s="87" t="s">
         <v>942</v>
       </c>
-      <c r="I159" s="91" t="s">
+      <c r="H159" s="87" t="s">
         <v>943</v>
       </c>
+      <c r="I159" s="87" t="s">
+        <v>944</v>
+      </c>
       <c r="J159" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K159" s="69" t="s">
         <v>23</v>
@@ -12285,32 +12274,32 @@
     </row>
     <row r="160" ht="158.4" spans="1:11">
       <c r="A160" s="12" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B160" s="57" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D160" s="91" t="s">
-        <v>946</v>
+        <v>934</v>
+      </c>
+      <c r="D160" s="87" t="s">
+        <v>947</v>
       </c>
       <c r="E160" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F160" s="91"/>
-      <c r="G160" s="91" t="s">
-        <v>947</v>
-      </c>
-      <c r="H160" s="91" t="s">
+      <c r="F160" s="87"/>
+      <c r="G160" s="87" t="s">
         <v>948</v>
       </c>
-      <c r="I160" s="91" t="s">
+      <c r="H160" s="87" t="s">
         <v>949</v>
       </c>
+      <c r="I160" s="87" t="s">
+        <v>950</v>
+      </c>
       <c r="J160" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K160" s="69" t="s">
         <v>23</v>
@@ -12318,32 +12307,32 @@
     </row>
     <row r="161" ht="129.6" spans="1:11">
       <c r="A161" s="12" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D161" s="91" t="s">
-        <v>952</v>
+        <v>934</v>
+      </c>
+      <c r="D161" s="87" t="s">
+        <v>953</v>
       </c>
       <c r="E161" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F161" s="91"/>
-      <c r="G161" s="91" t="s">
-        <v>953</v>
-      </c>
-      <c r="H161" s="91" t="s">
+      <c r="F161" s="87"/>
+      <c r="G161" s="87" t="s">
         <v>954</v>
       </c>
-      <c r="I161" s="91" t="s">
+      <c r="H161" s="87" t="s">
         <v>955</v>
       </c>
+      <c r="I161" s="87" t="s">
+        <v>956</v>
+      </c>
       <c r="J161" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K161" s="69" t="s">
         <v>23</v>
@@ -12351,32 +12340,32 @@
     </row>
     <row r="162" ht="187.2" spans="1:11">
       <c r="A162" s="12" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D162" s="91" t="s">
-        <v>958</v>
+        <v>934</v>
+      </c>
+      <c r="D162" s="87" t="s">
+        <v>959</v>
       </c>
       <c r="E162" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F162" s="91"/>
-      <c r="G162" s="91" t="s">
-        <v>959</v>
-      </c>
-      <c r="H162" s="91" t="s">
+      <c r="F162" s="87"/>
+      <c r="G162" s="87" t="s">
         <v>960</v>
       </c>
-      <c r="I162" s="91" t="s">
+      <c r="H162" s="87" t="s">
         <v>961</v>
       </c>
+      <c r="I162" s="87" t="s">
+        <v>962</v>
+      </c>
       <c r="J162" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K162" s="69" t="s">
         <v>23</v>
@@ -12384,32 +12373,32 @@
     </row>
     <row r="163" ht="187.2" spans="1:11">
       <c r="A163" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D163" s="91" t="s">
-        <v>964</v>
+        <v>934</v>
+      </c>
+      <c r="D163" s="87" t="s">
+        <v>965</v>
       </c>
       <c r="E163" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="91"/>
-      <c r="G163" s="91" t="s">
-        <v>965</v>
-      </c>
-      <c r="H163" s="91" t="s">
-        <v>960</v>
-      </c>
-      <c r="I163" s="91" t="s">
+      <c r="F163" s="87"/>
+      <c r="G163" s="87" t="s">
         <v>966</v>
       </c>
+      <c r="H163" s="87" t="s">
+        <v>961</v>
+      </c>
+      <c r="I163" s="87" t="s">
+        <v>967</v>
+      </c>
       <c r="J163" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K163" s="69" t="s">
         <v>23</v>
@@ -12417,32 +12406,32 @@
     </row>
     <row r="164" ht="146" customHeight="1" spans="1:11">
       <c r="A164" s="12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B164" s="57" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D164" s="91" t="s">
-        <v>969</v>
+        <v>934</v>
+      </c>
+      <c r="D164" s="87" t="s">
+        <v>970</v>
       </c>
       <c r="E164" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F164" s="91"/>
-      <c r="G164" s="91" t="s">
-        <v>970</v>
-      </c>
-      <c r="H164" s="91" t="s">
+      <c r="F164" s="87"/>
+      <c r="G164" s="87" t="s">
         <v>971</v>
       </c>
-      <c r="I164" s="91" t="s">
+      <c r="H164" s="87" t="s">
         <v>972</v>
       </c>
+      <c r="I164" s="87" t="s">
+        <v>973</v>
+      </c>
       <c r="J164" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K164" s="69" t="s">
         <v>23</v>
@@ -12450,32 +12439,32 @@
     </row>
     <row r="165" ht="137" customHeight="1" spans="1:11">
       <c r="A165" s="12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B165" s="57" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D165" s="91" t="s">
-        <v>975</v>
+        <v>934</v>
+      </c>
+      <c r="D165" s="87" t="s">
+        <v>976</v>
       </c>
       <c r="E165" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F165" s="91"/>
-      <c r="G165" s="91" t="s">
-        <v>976</v>
-      </c>
-      <c r="H165" s="91" t="s">
+      <c r="F165" s="87"/>
+      <c r="G165" s="87" t="s">
         <v>977</v>
       </c>
-      <c r="I165" s="91" t="s">
+      <c r="H165" s="87" t="s">
         <v>978</v>
       </c>
+      <c r="I165" s="87" t="s">
+        <v>979</v>
+      </c>
       <c r="J165" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K165" s="69" t="s">
         <v>23</v>
@@ -12483,32 +12472,32 @@
     </row>
     <row r="166" ht="137" customHeight="1" spans="1:11">
       <c r="A166" s="12" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B166" s="57" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D166" s="91" t="s">
-        <v>981</v>
+        <v>934</v>
+      </c>
+      <c r="D166" s="87" t="s">
+        <v>982</v>
       </c>
       <c r="E166" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F166" s="91"/>
-      <c r="G166" s="91" t="s">
-        <v>982</v>
-      </c>
-      <c r="H166" s="91" t="s">
+      <c r="F166" s="87"/>
+      <c r="G166" s="87" t="s">
         <v>983</v>
       </c>
-      <c r="I166" s="91" t="s">
+      <c r="H166" s="87" t="s">
         <v>984</v>
       </c>
+      <c r="I166" s="87" t="s">
+        <v>985</v>
+      </c>
       <c r="J166" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K166" s="69" t="s">
         <v>23</v>
@@ -12516,32 +12505,32 @@
     </row>
     <row r="167" ht="183" customHeight="1" spans="1:11">
       <c r="A167" s="12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B167" s="57" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D167" s="91" t="s">
-        <v>987</v>
+        <v>934</v>
+      </c>
+      <c r="D167" s="87" t="s">
+        <v>988</v>
       </c>
       <c r="E167" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F167" s="91"/>
-      <c r="G167" s="91" t="s">
-        <v>988</v>
-      </c>
-      <c r="H167" s="91" t="s">
+      <c r="F167" s="87"/>
+      <c r="G167" s="87" t="s">
         <v>989</v>
       </c>
-      <c r="I167" s="91" t="s">
+      <c r="H167" s="87" t="s">
         <v>990</v>
       </c>
+      <c r="I167" s="87" t="s">
+        <v>991</v>
+      </c>
       <c r="J167" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K167" s="69" t="s">
         <v>23</v>
@@ -12549,32 +12538,32 @@
     </row>
     <row r="168" ht="202" customHeight="1" spans="1:11">
       <c r="A168" s="12" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B168" s="57" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C168" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D168" s="91" t="s">
-        <v>993</v>
+        <v>934</v>
+      </c>
+      <c r="D168" s="87" t="s">
+        <v>994</v>
       </c>
       <c r="E168" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F168" s="91"/>
-      <c r="G168" s="91" t="s">
-        <v>994</v>
-      </c>
-      <c r="H168" s="91" t="s">
+      <c r="F168" s="87"/>
+      <c r="G168" s="87" t="s">
         <v>995</v>
       </c>
-      <c r="I168" s="91" t="s">
+      <c r="H168" s="87" t="s">
         <v>996</v>
       </c>
+      <c r="I168" s="87" t="s">
+        <v>997</v>
+      </c>
       <c r="J168" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K168" s="69" t="s">
         <v>23</v>
@@ -12582,32 +12571,32 @@
     </row>
     <row r="169" ht="198" customHeight="1" spans="1:11">
       <c r="A169" s="12" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B169" s="57" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D169" s="91" t="s">
-        <v>999</v>
+        <v>934</v>
+      </c>
+      <c r="D169" s="87" t="s">
+        <v>1000</v>
       </c>
       <c r="E169" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="91"/>
-      <c r="G169" s="91" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H169" s="91" t="s">
+      <c r="F169" s="87"/>
+      <c r="G169" s="87" t="s">
         <v>1001</v>
       </c>
-      <c r="I169" s="91" t="s">
+      <c r="H169" s="87" t="s">
         <v>1002</v>
       </c>
+      <c r="I169" s="87" t="s">
+        <v>1003</v>
+      </c>
       <c r="J169" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K169" s="69" t="s">
         <v>23</v>
@@ -12615,32 +12604,32 @@
     </row>
     <row r="170" ht="201" customHeight="1" spans="1:11">
       <c r="A170" s="12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C170" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D170" s="91" t="s">
-        <v>1005</v>
+        <v>934</v>
+      </c>
+      <c r="D170" s="87" t="s">
+        <v>1006</v>
       </c>
       <c r="E170" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="91"/>
-      <c r="G170" s="91" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H170" s="91" t="s">
+      <c r="F170" s="87"/>
+      <c r="G170" s="87" t="s">
         <v>1007</v>
       </c>
-      <c r="I170" s="91" t="s">
+      <c r="H170" s="87" t="s">
         <v>1008</v>
       </c>
+      <c r="I170" s="87" t="s">
+        <v>1009</v>
+      </c>
       <c r="J170" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K170" s="69" t="s">
         <v>23</v>
@@ -12648,32 +12637,32 @@
     </row>
     <row r="171" ht="178" customHeight="1" spans="1:11">
       <c r="A171" s="12" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C171" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D171" s="91" t="s">
-        <v>1011</v>
+        <v>934</v>
+      </c>
+      <c r="D171" s="87" t="s">
+        <v>1012</v>
       </c>
       <c r="E171" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F171" s="91"/>
-      <c r="G171" s="91" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H171" s="91" t="s">
+      <c r="F171" s="87"/>
+      <c r="G171" s="87" t="s">
         <v>1013</v>
       </c>
-      <c r="I171" s="91" t="s">
+      <c r="H171" s="87" t="s">
         <v>1014</v>
       </c>
+      <c r="I171" s="87" t="s">
+        <v>1015</v>
+      </c>
       <c r="J171" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K171" s="69" t="s">
         <v>23</v>
@@ -12681,32 +12670,32 @@
     </row>
     <row r="172" ht="173" customHeight="1" spans="1:11">
       <c r="A172" s="12" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C172" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D172" s="91" t="s">
-        <v>1017</v>
+        <v>934</v>
+      </c>
+      <c r="D172" s="87" t="s">
+        <v>1018</v>
       </c>
       <c r="E172" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F172" s="91"/>
-      <c r="G172" s="91" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H172" s="91" t="s">
+      <c r="F172" s="87"/>
+      <c r="G172" s="87" t="s">
         <v>1019</v>
       </c>
-      <c r="I172" s="91" t="s">
+      <c r="H172" s="87" t="s">
         <v>1020</v>
       </c>
+      <c r="I172" s="87" t="s">
+        <v>1021</v>
+      </c>
       <c r="J172" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K172" s="69" t="s">
         <v>23</v>
@@ -12714,32 +12703,32 @@
     </row>
     <row r="173" ht="187" customHeight="1" spans="1:11">
       <c r="A173" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C173" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D173" s="91" t="s">
-        <v>1023</v>
+        <v>934</v>
+      </c>
+      <c r="D173" s="87" t="s">
+        <v>1024</v>
       </c>
       <c r="E173" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F173" s="91"/>
-      <c r="G173" s="91" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H173" s="91" t="s">
+      <c r="F173" s="87"/>
+      <c r="G173" s="87" t="s">
         <v>1025</v>
       </c>
-      <c r="I173" s="91" t="s">
+      <c r="H173" s="87" t="s">
         <v>1026</v>
       </c>
+      <c r="I173" s="87" t="s">
+        <v>1027</v>
+      </c>
       <c r="J173" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K173" s="69" t="s">
         <v>23</v>
@@ -12747,32 +12736,32 @@
     </row>
     <row r="174" ht="174" customHeight="1" spans="1:11">
       <c r="A174" s="12" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C174" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D174" s="91" t="s">
-        <v>1029</v>
+        <v>934</v>
+      </c>
+      <c r="D174" s="87" t="s">
+        <v>1030</v>
       </c>
       <c r="E174" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F174" s="91"/>
-      <c r="G174" s="91" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H174" s="91" t="s">
+      <c r="F174" s="87"/>
+      <c r="G174" s="87" t="s">
         <v>1031</v>
       </c>
-      <c r="I174" s="91" t="s">
+      <c r="H174" s="87" t="s">
         <v>1032</v>
       </c>
+      <c r="I174" s="87" t="s">
+        <v>1033</v>
+      </c>
       <c r="J174" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K174" s="69" t="s">
         <v>23</v>
@@ -12780,32 +12769,32 @@
     </row>
     <row r="175" ht="192" customHeight="1" spans="1:11">
       <c r="A175" s="12" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C175" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D175" s="91" t="s">
-        <v>1035</v>
+        <v>934</v>
+      </c>
+      <c r="D175" s="87" t="s">
+        <v>1036</v>
       </c>
       <c r="E175" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H175" s="91" t="s">
+      <c r="F175" s="87"/>
+      <c r="G175" s="87" t="s">
         <v>1037</v>
       </c>
-      <c r="I175" s="91" t="s">
+      <c r="H175" s="87" t="s">
         <v>1038</v>
       </c>
+      <c r="I175" s="87" t="s">
+        <v>1039</v>
+      </c>
       <c r="J175" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K175" s="69" t="s">
         <v>23</v>
@@ -12813,32 +12802,32 @@
     </row>
     <row r="176" ht="232" customHeight="1" spans="1:11">
       <c r="A176" s="12" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B176" s="57" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C176" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D176" s="91" t="s">
-        <v>1041</v>
+        <v>934</v>
+      </c>
+      <c r="D176" s="87" t="s">
+        <v>1042</v>
       </c>
       <c r="E176" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F176" s="91"/>
-      <c r="G176" s="91" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H176" s="91" t="s">
+      <c r="F176" s="87"/>
+      <c r="G176" s="87" t="s">
         <v>1043</v>
       </c>
-      <c r="I176" s="91" t="s">
+      <c r="H176" s="87" t="s">
         <v>1044</v>
       </c>
+      <c r="I176" s="87" t="s">
+        <v>1045</v>
+      </c>
       <c r="J176" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K176" s="69" t="s">
         <v>23</v>
@@ -12846,32 +12835,32 @@
     </row>
     <row r="177" ht="246" customHeight="1" spans="1:11">
       <c r="A177" s="12" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B177" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C177" s="69" t="s">
-        <v>933</v>
-      </c>
-      <c r="D177" s="91" t="s">
-        <v>1047</v>
+        <v>934</v>
+      </c>
+      <c r="D177" s="87" t="s">
+        <v>1048</v>
       </c>
       <c r="E177" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H177" s="91" t="s">
+      <c r="F177" s="87"/>
+      <c r="G177" s="87" t="s">
         <v>1049</v>
       </c>
-      <c r="I177" s="91" t="s">
+      <c r="H177" s="87" t="s">
         <v>1050</v>
       </c>
+      <c r="I177" s="87" t="s">
+        <v>1051</v>
+      </c>
       <c r="J177" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K177" s="69" t="s">
         <v>23</v>
@@ -12879,32 +12868,32 @@
     </row>
     <row r="178" ht="92.4" spans="1:11">
       <c r="A178" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B178" s="57" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C178" s="128" t="s">
         <v>1053</v>
       </c>
-      <c r="D178" s="129" t="s">
+      <c r="C178" s="124" t="s">
         <v>1054</v>
       </c>
-      <c r="E178" s="128" t="s">
+      <c r="D178" s="125" t="s">
         <v>1055</v>
       </c>
-      <c r="F178" s="129"/>
-      <c r="G178" s="129" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H178" s="129" t="s">
+      <c r="E178" s="124" t="s">
         <v>1056</v>
       </c>
-      <c r="I178" s="129" t="s">
+      <c r="F178" s="125"/>
+      <c r="G178" s="125" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H178" s="125" t="s">
         <v>1057</v>
       </c>
-      <c r="J178" s="129" t="s">
-        <v>403</v>
+      <c r="I178" s="125" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J178" s="125" t="s">
+        <v>404</v>
       </c>
       <c r="K178" s="69" t="s">
         <v>23</v>
@@ -12912,32 +12901,32 @@
     </row>
     <row r="179" ht="79.2" spans="1:11">
       <c r="A179" s="12" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C179" s="128" t="s">
         <v>1060</v>
       </c>
-      <c r="D179" s="129" t="s">
+      <c r="C179" s="124" t="s">
         <v>1061</v>
       </c>
-      <c r="E179" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="F179" s="129"/>
-      <c r="G179" s="129" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H179" s="129" t="s">
+      <c r="D179" s="125" t="s">
         <v>1062</v>
       </c>
-      <c r="I179" s="129" t="s">
+      <c r="E179" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" s="125"/>
+      <c r="G179" s="125" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H179" s="125" t="s">
         <v>1063</v>
       </c>
-      <c r="J179" s="129" t="s">
-        <v>403</v>
+      <c r="I179" s="125" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J179" s="125" t="s">
+        <v>404</v>
       </c>
       <c r="K179" s="69" t="s">
         <v>23</v>
@@ -12945,32 +12934,32 @@
     </row>
     <row r="180" ht="115.2" spans="1:11">
       <c r="A180" s="12" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C180" s="92" t="s">
         <v>1066</v>
       </c>
+      <c r="C180" s="88" t="s">
+        <v>1067</v>
+      </c>
       <c r="D180" s="61" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E180" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F180" s="61"/>
       <c r="G180" s="61" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H180" s="61" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I180" s="61" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J180" s="61" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="K180" s="61" t="s">
         <v>23</v>
@@ -12978,32 +12967,32 @@
     </row>
     <row r="181" ht="43.2" spans="1:11">
       <c r="A181" s="12" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C181" s="92" t="s">
-        <v>1066</v>
+        <v>1073</v>
+      </c>
+      <c r="C181" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D181" s="61" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E181" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F181" s="61"/>
       <c r="G181" s="61" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H181" s="94" t="s">
         <v>1075</v>
       </c>
+      <c r="H181" s="90" t="s">
+        <v>1076</v>
+      </c>
       <c r="I181" s="61" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J181" s="61" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="K181" s="61" t="s">
         <v>23</v>
@@ -13011,32 +13000,32 @@
     </row>
     <row r="182" ht="43.2" spans="1:11">
       <c r="A182" s="12" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B182" s="57" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C182" s="92" t="s">
-        <v>1066</v>
+        <v>1080</v>
+      </c>
+      <c r="C182" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D182" s="61" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E182" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="61"/>
       <c r="G182" s="61" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H182" s="94" t="s">
         <v>1081</v>
       </c>
+      <c r="H182" s="90" t="s">
+        <v>1082</v>
+      </c>
       <c r="I182" s="61" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="J182" s="61" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="K182" s="61" t="s">
         <v>23</v>
@@ -13044,32 +13033,32 @@
     </row>
     <row r="183" ht="43.2" spans="1:11">
       <c r="A183" s="12" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C183" s="92" t="s">
-        <v>1066</v>
+        <v>1086</v>
+      </c>
+      <c r="C183" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D183" s="61" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E183" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="61"/>
       <c r="G183" s="61" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H183" s="94" t="s">
         <v>1087</v>
       </c>
+      <c r="H183" s="90" t="s">
+        <v>1088</v>
+      </c>
       <c r="I183" s="61" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="J183" s="61" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="K183" s="61" t="s">
         <v>23</v>
@@ -13077,32 +13066,32 @@
     </row>
     <row r="184" ht="43.2" spans="1:11">
       <c r="A184" s="12" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B184" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C184" s="92" t="s">
-        <v>1066</v>
+        <v>1092</v>
+      </c>
+      <c r="C184" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E184" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F184" s="61"/>
       <c r="G184" s="61" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H184" s="94" t="s">
         <v>1093</v>
       </c>
+      <c r="H184" s="90" t="s">
+        <v>1094</v>
+      </c>
       <c r="I184" s="61" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="J184" s="61" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="K184" s="61" t="s">
         <v>23</v>
@@ -13110,32 +13099,32 @@
     </row>
     <row r="185" ht="43.2" spans="1:11">
       <c r="A185" s="12" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B185" s="57" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C185" s="92" t="s">
-        <v>1066</v>
+        <v>1098</v>
+      </c>
+      <c r="C185" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D185" s="61" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E185" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F185" s="61"/>
       <c r="G185" s="61" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H185" s="94" t="s">
         <v>1099</v>
       </c>
+      <c r="H185" s="90" t="s">
+        <v>1100</v>
+      </c>
       <c r="I185" s="61" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J185" s="61" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="K185" s="61" t="s">
         <v>23</v>
@@ -13143,32 +13132,32 @@
     </row>
     <row r="186" ht="43.2" spans="1:11">
       <c r="A186" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C186" s="92" t="s">
-        <v>1066</v>
+        <v>1103</v>
+      </c>
+      <c r="C186" s="88" t="s">
+        <v>1067</v>
       </c>
       <c r="D186" s="61" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E186" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="61"/>
       <c r="G186" s="61" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H186" s="94" t="s">
-        <v>1104</v>
+        <v>1069</v>
+      </c>
+      <c r="H186" s="90" t="s">
+        <v>1105</v>
       </c>
       <c r="I186" s="61" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="J186" s="61" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="K186" s="61" t="s">
         <v>23</v>
@@ -13176,32 +13165,32 @@
     </row>
     <row r="187" ht="168" customHeight="1" spans="1:11">
       <c r="A187" s="12" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C187" s="130" t="s">
         <v>1109</v>
       </c>
+      <c r="C187" s="126" t="s">
+        <v>1110</v>
+      </c>
       <c r="D187" s="59" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E187" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F187" s="59"/>
       <c r="G187" s="59" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H187" s="91" t="s">
         <v>1111</v>
       </c>
-      <c r="I187" s="91" t="s">
+      <c r="H187" s="87" t="s">
         <v>1112</v>
       </c>
+      <c r="I187" s="87" t="s">
+        <v>1113</v>
+      </c>
       <c r="J187" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K187" s="61" t="s">
         <v>23</v>
@@ -13209,32 +13198,32 @@
     </row>
     <row r="188" ht="187.2" spans="1:11">
       <c r="A188" s="12" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B188" s="57" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C188" s="130" t="s">
-        <v>1109</v>
+        <v>1115</v>
+      </c>
+      <c r="C188" s="126" t="s">
+        <v>1110</v>
       </c>
       <c r="D188" s="59" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E188" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F188" s="59"/>
       <c r="G188" s="59" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H188" s="91" t="s">
         <v>1116</v>
       </c>
-      <c r="I188" s="91" t="s">
+      <c r="H188" s="87" t="s">
         <v>1117</v>
       </c>
+      <c r="I188" s="87" t="s">
+        <v>1118</v>
+      </c>
       <c r="J188" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K188" s="61" t="s">
         <v>23</v>
@@ -13242,32 +13231,32 @@
     </row>
     <row r="189" ht="129.6" spans="1:11">
       <c r="A189" s="12" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B189" s="57" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C189" s="130" t="s">
         <v>1120</v>
       </c>
-      <c r="D189" s="91" t="s">
+      <c r="C189" s="126" t="s">
         <v>1121</v>
       </c>
+      <c r="D189" s="87" t="s">
+        <v>1122</v>
+      </c>
       <c r="E189" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F189" s="91"/>
-      <c r="G189" s="91" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H189" s="91" t="s">
+      <c r="F189" s="87"/>
+      <c r="G189" s="87" t="s">
         <v>1122</v>
       </c>
-      <c r="I189" s="91" t="s">
+      <c r="H189" s="87" t="s">
         <v>1123</v>
       </c>
+      <c r="I189" s="87" t="s">
+        <v>1124</v>
+      </c>
       <c r="J189" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K189" s="61" t="s">
         <v>23</v>
@@ -13275,32 +13264,32 @@
     </row>
     <row r="190" ht="129.6" spans="1:11">
       <c r="A190" s="12" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C190" s="130" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D190" s="91" t="s">
         <v>1126</v>
       </c>
+      <c r="C190" s="126" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D190" s="87" t="s">
+        <v>1127</v>
+      </c>
       <c r="E190" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F190" s="91"/>
-      <c r="G190" s="91" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H190" s="91" t="s">
+      <c r="F190" s="87"/>
+      <c r="G190" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="I190" s="91" t="s">
+      <c r="H190" s="87" t="s">
         <v>1128</v>
       </c>
+      <c r="I190" s="87" t="s">
+        <v>1129</v>
+      </c>
       <c r="J190" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K190" s="61" t="s">
         <v>23</v>
@@ -13308,32 +13297,32 @@
     </row>
     <row r="191" ht="129.6" spans="1:11">
       <c r="A191" s="12" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B191" s="57" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C191" s="130" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D191" s="91" t="s">
         <v>1131</v>
       </c>
+      <c r="C191" s="126" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D191" s="87" t="s">
+        <v>1132</v>
+      </c>
       <c r="E191" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F191" s="91"/>
-      <c r="G191" s="91" t="s">
-        <v>1131</v>
-      </c>
-      <c r="H191" s="91" t="s">
+      <c r="F191" s="87"/>
+      <c r="G191" s="87" t="s">
         <v>1132</v>
       </c>
-      <c r="I191" s="91" t="s">
+      <c r="H191" s="87" t="s">
         <v>1133</v>
       </c>
+      <c r="I191" s="87" t="s">
+        <v>1134</v>
+      </c>
       <c r="J191" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K191" s="61" t="s">
         <v>23</v>
@@ -13341,32 +13330,32 @@
     </row>
     <row r="192" ht="144" spans="1:11">
       <c r="A192" s="12" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B192" s="57" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C192" s="130" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D192" s="91" t="s">
         <v>1136</v>
       </c>
+      <c r="C192" s="126" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D192" s="87" t="s">
+        <v>1137</v>
+      </c>
       <c r="E192" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F192" s="91"/>
-      <c r="G192" s="91" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H192" s="91" t="s">
+      <c r="F192" s="87"/>
+      <c r="G192" s="87" t="s">
         <v>1137</v>
       </c>
-      <c r="I192" s="91" t="s">
+      <c r="H192" s="87" t="s">
         <v>1138</v>
       </c>
+      <c r="I192" s="87" t="s">
+        <v>1139</v>
+      </c>
       <c r="J192" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K192" s="61" t="s">
         <v>23</v>
@@ -13374,21 +13363,21 @@
     </row>
     <row r="193" ht="15.6" spans="1:11">
       <c r="A193" s="12"/>
-      <c r="B193" s="130"/>
-      <c r="C193" s="130"/>
-      <c r="D193" s="91"/>
+      <c r="B193" s="126"/>
+      <c r="C193" s="126"/>
+      <c r="D193" s="87"/>
       <c r="E193" s="61"/>
-      <c r="F193" s="91"/>
-      <c r="G193" s="91"/>
-      <c r="H193" s="91"/>
-      <c r="I193" s="91"/>
+      <c r="F193" s="87"/>
+      <c r="G193" s="87"/>
+      <c r="H193" s="87"/>
+      <c r="I193" s="87"/>
       <c r="J193" s="69"/>
       <c r="K193" s="61"/>
     </row>
     <row r="194" ht="15.6" spans="1:11">
       <c r="A194" s="12"/>
-      <c r="B194" s="130"/>
-      <c r="C194" s="130"/>
+      <c r="B194" s="126"/>
+      <c r="C194" s="126"/>
       <c r="D194" s="69"/>
       <c r="E194" s="61"/>
       <c r="F194" s="69"/>
@@ -13606,10 +13595,10 @@
     <row r="1" ht="288.75" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:1">
